--- a/Project/BMED/Data treatment/250110_BMED_train data_v1.xlsx
+++ b/Project/BMED/Data treatment/250110_BMED_train data_v1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\내 드라이브\sjbaek\4. Archive\AttachedFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bsjun\Documents\workspace\Git\repos_python\Project\BMED\Data treatment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6B7246-2044-467A-8EF1-CD88FAC62D23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78AA73D5-5BF6-4C50-AEBE-7F56D4D7EFED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="9150" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2578,7 +2578,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="26">
   <si>
     <t>SEC</t>
   </si>
@@ -2675,6 +2675,10 @@
   </si>
   <si>
     <t>exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_avg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2850,7 +2854,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -3104,6 +3108,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -4519,7 +4524,7 @@
       <selection activeCell="E117" sqref="E117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
@@ -7400,9 +7405,9 @@
       <selection pane="bottomLeft" sqref="A1:U281"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="11" max="11" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -16283,7 +16288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:21" ht="17.25">
+    <row r="131" spans="1:21" ht="17.5">
       <c r="A131" s="49">
         <v>28.8</v>
       </c>
@@ -16352,7 +16357,7 @@
         <v>-8.2726137044532244E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:21" ht="17.25">
+    <row r="132" spans="1:21" ht="17.5">
       <c r="A132" s="49">
         <v>22.3</v>
       </c>
@@ -16421,7 +16426,7 @@
         <v>2.3624749867161086</v>
       </c>
     </row>
-    <row r="133" spans="1:21" ht="17.25">
+    <row r="133" spans="1:21" ht="17.5">
       <c r="A133" s="49">
         <v>24.9</v>
       </c>
@@ -16490,7 +16495,7 @@
         <v>2.5963558532295594</v>
       </c>
     </row>
-    <row r="134" spans="1:21" ht="17.25">
+    <row r="134" spans="1:21" ht="17.5">
       <c r="A134" s="49">
         <v>26</v>
       </c>
@@ -16559,7 +16564,7 @@
         <v>3.8790774842491</v>
       </c>
     </row>
-    <row r="135" spans="1:21" ht="17.25">
+    <row r="135" spans="1:21" ht="17.5">
       <c r="A135" s="49">
         <v>26.4</v>
       </c>
@@ -16628,7 +16633,7 @@
         <v>4.703778594281709</v>
       </c>
     </row>
-    <row r="136" spans="1:21" ht="17.25">
+    <row r="136" spans="1:21" ht="17.5">
       <c r="A136" s="50">
         <v>26.2</v>
       </c>
@@ -16697,7 +16702,7 @@
         <v>5.2730137134975639</v>
       </c>
     </row>
-    <row r="137" spans="1:21" ht="17.25">
+    <row r="137" spans="1:21" ht="17.5">
       <c r="A137" s="50">
         <v>26</v>
       </c>
@@ -16766,7 +16771,7 @@
         <v>5.5793035284275261</v>
       </c>
     </row>
-    <row r="138" spans="1:21" ht="17.25">
+    <row r="138" spans="1:21" ht="17.5">
       <c r="A138" s="92">
         <v>22.7</v>
       </c>
@@ -16831,7 +16836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:21" ht="17.25">
+    <row r="139" spans="1:21" ht="17.5">
       <c r="A139" s="92">
         <v>23.7</v>
       </c>
@@ -16900,7 +16905,7 @@
         <v>0.42598812311885581</v>
       </c>
     </row>
-    <row r="140" spans="1:21" ht="17.25">
+    <row r="140" spans="1:21" ht="17.5">
       <c r="A140" s="92">
         <v>26.7</v>
       </c>
@@ -16969,7 +16974,7 @@
         <v>2.379399342078544</v>
       </c>
     </row>
-    <row r="141" spans="1:21" ht="17.25">
+    <row r="141" spans="1:21" ht="17.5">
       <c r="A141" s="92">
         <v>27.7</v>
       </c>
@@ -17038,7 +17043,7 @@
         <v>3.4908035395993808</v>
       </c>
     </row>
-    <row r="142" spans="1:21" ht="17.25">
+    <row r="142" spans="1:21" ht="17.5">
       <c r="A142" s="92">
         <v>28.4</v>
       </c>
@@ -17107,7 +17112,7 @@
         <v>4.4023149088250833</v>
       </c>
     </row>
-    <row r="143" spans="1:21" ht="17.25">
+    <row r="143" spans="1:21" ht="17.5">
       <c r="A143" s="92">
         <v>28.4</v>
       </c>
@@ -17176,7 +17181,7 @@
         <v>5.0344921523237085</v>
       </c>
     </row>
-    <row r="144" spans="1:21" ht="17.25">
+    <row r="144" spans="1:21" ht="17.5">
       <c r="A144" s="92">
         <v>28.2</v>
       </c>
@@ -17245,7 +17250,7 @@
         <v>5.5213124917082945</v>
       </c>
     </row>
-    <row r="145" spans="1:21" ht="17.25">
+    <row r="145" spans="1:21" ht="17.5">
       <c r="A145" s="102">
         <v>24.7</v>
       </c>
@@ -17310,7 +17315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:21" ht="17.25">
+    <row r="146" spans="1:21" ht="17.5">
       <c r="A146" s="78">
         <v>19.600000000000001</v>
       </c>
@@ -17379,7 +17384,7 @@
         <v>8.5216082880082977E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:21" ht="17.25">
+    <row r="147" spans="1:21" ht="17.5">
       <c r="A147" s="78">
         <v>19.3</v>
       </c>
@@ -22303,7 +22308,7 @@
         <v>2.5237554898270136</v>
       </c>
     </row>
-    <row r="219" spans="1:21" ht="17.25">
+    <row r="219" spans="1:21" ht="17.5">
       <c r="A219" s="68">
         <v>18</v>
       </c>
@@ -22372,7 +22377,7 @@
         <v>2.8221452259311892</v>
       </c>
     </row>
-    <row r="220" spans="1:21" ht="17.25">
+    <row r="220" spans="1:21" ht="17.5">
       <c r="A220" s="104">
         <v>22.5</v>
       </c>
@@ -26756,7 +26761,7 @@
       <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="25" t="s">
@@ -26990,7 +26995,7 @@
         <v>543.99318984124682</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="17.25">
+    <row r="9" spans="1:9" ht="17.5">
       <c r="A9" s="49">
         <v>22.3</v>
       </c>
@@ -27454,7 +27459,7 @@
         <v>1337.4265428000001</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="17.25">
+    <row r="25" spans="1:9" ht="17.5">
       <c r="A25" s="49">
         <v>28.8</v>
       </c>
@@ -27541,7 +27546,7 @@
         <v>60.420076255709098</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="17.25">
+    <row r="28" spans="1:9" ht="17.5">
       <c r="A28" s="49">
         <v>24.9</v>
       </c>
@@ -28469,7 +28474,7 @@
         <v>222.06601934981819</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="17.25">
+    <row r="60" spans="1:9" ht="17.5">
       <c r="A60" s="85">
         <v>26</v>
       </c>
@@ -29745,7 +29750,7 @@
         <v>61.525458909090922</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="17.25">
+    <row r="104" spans="1:9" ht="17.5">
       <c r="A104" s="49">
         <v>26.4</v>
       </c>
@@ -30064,7 +30069,7 @@
         <v>349.62176099054534</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="17.25">
+    <row r="115" spans="1:9" ht="17.5">
       <c r="A115" s="68">
         <v>18</v>
       </c>
@@ -30876,7 +30881,7 @@
         <v>199.96386116218187</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="17.25">
+    <row r="143" spans="1:9" ht="17.5">
       <c r="A143" s="50">
         <v>26.2</v>
       </c>
@@ -31804,7 +31809,7 @@
         <v>333.00426019694538</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="17.25">
+    <row r="175" spans="1:9" ht="17.5">
       <c r="A175" s="50">
         <v>26</v>
       </c>
@@ -32181,7 +32186,7 @@
         <v>617.25194930908924</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="17.25">
+    <row r="188" spans="1:9" ht="17.5">
       <c r="A188" s="29">
         <v>25.7</v>
       </c>
@@ -33005,15 +33010,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E39D89A-E77F-4ECE-9726-9D392B928892}">
-  <dimension ref="A1:V216"/>
+  <dimension ref="A1:W216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="F206" sqref="F206"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -33080,8 +33085,11 @@
       <c r="V1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="W1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2">
         <v>1</v>
       </c>
@@ -33148,8 +33156,12 @@
         <f>F2-U2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2">
+        <f>AVERAGE(B2:B7)</f>
+        <v>24.816666666666666</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3">
         <v>1</v>
       </c>
@@ -33205,23 +33217,27 @@
         <v>0.98</v>
       </c>
       <c r="S3" s="106">
-        <f t="shared" ref="S3:S7" si="0">E3*J3/$J$2*P3</f>
+        <f>E3*J3/$J$2*P3</f>
         <v>0.49165653350131333</v>
       </c>
       <c r="T3" s="106">
-        <f t="shared" ref="T3:T57" si="1">E3-S3</f>
+        <f t="shared" ref="T3:T57" si="0">E3-S3</f>
         <v>8.3434664986866691E-3</v>
       </c>
       <c r="U3" s="106">
-        <f t="shared" ref="U3:U7" si="2">F3*M3/$M$2*P3</f>
+        <f t="shared" ref="U3:U7" si="1">F3*M3/$M$2*P3</f>
         <v>1.012353376365442</v>
       </c>
       <c r="V3" s="106">
-        <f t="shared" ref="V3:V57" si="3">F3-U3</f>
+        <f t="shared" ref="V3:V57" si="2">F3-U3</f>
         <v>-1.2353376365441981E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3">
+        <f>W2</f>
+        <v>24.816666666666666</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4">
         <v>1</v>
       </c>
@@ -33277,23 +33293,27 @@
         <v>0.98</v>
       </c>
       <c r="S4" s="106">
+        <f t="shared" ref="S3:S7" si="3">E4*J4/$J$2*P4</f>
+        <v>0.46336443859741527</v>
+      </c>
+      <c r="T4" s="106">
         <f t="shared" si="0"/>
-        <v>0.46336443859741527</v>
-      </c>
-      <c r="T4" s="106">
+        <v>3.6635561402584726E-2</v>
+      </c>
+      <c r="U4" s="106">
         <f t="shared" si="1"/>
-        <v>3.6635561402584726E-2</v>
-      </c>
-      <c r="U4" s="106">
+        <v>0.82680587002096451</v>
+      </c>
+      <c r="V4" s="106">
         <f t="shared" si="2"/>
-        <v>0.82680587002096451</v>
-      </c>
-      <c r="V4" s="106">
-        <f t="shared" si="3"/>
         <v>0.17319412997903549</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4">
+        <f t="shared" ref="W4:W7" si="4">W3</f>
+        <v>24.816666666666666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5">
         <v>1</v>
       </c>
@@ -33349,23 +33369,27 @@
         <v>1.01</v>
       </c>
       <c r="S5" s="106">
+        <f t="shared" si="3"/>
+        <v>0.39578062255181923</v>
+      </c>
+      <c r="T5" s="106">
         <f t="shared" si="0"/>
-        <v>0.39578062255181923</v>
-      </c>
-      <c r="T5" s="106">
+        <v>0.10421937744818077</v>
+      </c>
+      <c r="U5" s="106">
         <f t="shared" si="1"/>
-        <v>0.10421937744818077</v>
-      </c>
-      <c r="U5" s="106">
+        <v>0.58051463770274736</v>
+      </c>
+      <c r="V5" s="106">
         <f t="shared" si="2"/>
-        <v>0.58051463770274736</v>
-      </c>
-      <c r="V5" s="106">
-        <f t="shared" si="3"/>
         <v>0.41948536229725264</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5">
+        <f t="shared" si="4"/>
+        <v>24.816666666666666</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6">
         <v>1</v>
       </c>
@@ -33421,23 +33445,27 @@
         <v>1.02</v>
       </c>
       <c r="S6" s="106">
+        <f t="shared" si="3"/>
+        <v>0.27708197714579641</v>
+      </c>
+      <c r="T6" s="106">
         <f t="shared" si="0"/>
-        <v>0.27708197714579641</v>
-      </c>
-      <c r="T6" s="106">
+        <v>0.22291802285420359</v>
+      </c>
+      <c r="U6" s="106">
         <f t="shared" si="1"/>
-        <v>0.22291802285420359</v>
-      </c>
-      <c r="U6" s="106">
+        <v>0.34926810669756148</v>
+      </c>
+      <c r="V6" s="106">
         <f t="shared" si="2"/>
-        <v>0.34926810669756148</v>
-      </c>
-      <c r="V6" s="106">
-        <f t="shared" si="3"/>
         <v>0.65073189330243852</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6">
+        <f t="shared" si="4"/>
+        <v>24.816666666666666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7">
         <v>1</v>
       </c>
@@ -33493,23 +33521,27 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="S7" s="106">
+        <f t="shared" si="3"/>
+        <v>0.10177861466651056</v>
+      </c>
+      <c r="T7" s="106">
         <f t="shared" si="0"/>
-        <v>0.10177861466651056</v>
-      </c>
-      <c r="T7" s="106">
+        <v>0.39822138533348944</v>
+      </c>
+      <c r="U7" s="106">
         <f t="shared" si="1"/>
-        <v>0.39822138533348944</v>
-      </c>
-      <c r="U7" s="106">
+        <v>0.2014704187722976</v>
+      </c>
+      <c r="V7" s="106">
         <f t="shared" si="2"/>
-        <v>0.2014704187722976</v>
-      </c>
-      <c r="V7" s="106">
-        <f t="shared" si="3"/>
         <v>0.79852958122770246</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7">
+        <f t="shared" si="4"/>
+        <v>24.816666666666666</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8">
         <v>2</v>
       </c>
@@ -33565,7 +33597,7 @@
         <v>0.5</v>
       </c>
       <c r="T8" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U8" s="106">
@@ -33573,11 +33605,15 @@
         <v>1</v>
       </c>
       <c r="V8" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="W8">
+        <f>AVERAGE(B8:B15)</f>
+        <v>23.287499999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9">
         <v>2</v>
       </c>
@@ -33633,23 +33669,27 @@
         <v>0.97</v>
       </c>
       <c r="S9" s="106">
-        <f t="shared" ref="S9:S15" si="4">E9*J9/$J$8*P9</f>
+        <f t="shared" ref="S9:S15" si="5">E9*J9/$J$8*P9</f>
         <v>0.5031368771317366</v>
       </c>
       <c r="T9" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-3.136877131736604E-3</v>
       </c>
       <c r="U9" s="106">
-        <f t="shared" ref="U9:U15" si="5">F9*M9/$M$8*P9</f>
+        <f t="shared" ref="U9:U15" si="6">F9*M9/$M$8*P9</f>
         <v>0.99586692144333788</v>
       </c>
       <c r="V9" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.1330785566621175E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="W9">
+        <f>W8</f>
+        <v>23.287499999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10">
         <v>2</v>
       </c>
@@ -33705,23 +33745,27 @@
         <v>0.96</v>
       </c>
       <c r="S10" s="106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.51203210747170391</v>
       </c>
       <c r="T10" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-1.2032107471703912E-2</v>
       </c>
       <c r="U10" s="106">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.087107471975348</v>
       </c>
       <c r="V10" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-8.7107471975347961E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="W10">
+        <f t="shared" ref="W10:W15" si="7">W9</f>
+        <v>23.287499999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11">
         <v>2</v>
       </c>
@@ -33777,23 +33821,27 @@
         <v>0.94</v>
       </c>
       <c r="S11" s="106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.49709154823571272</v>
       </c>
       <c r="T11" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.9084517642872787E-3</v>
       </c>
       <c r="U11" s="106">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.99177366739124617</v>
       </c>
       <c r="V11" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8.226332608753828E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="W11">
+        <f t="shared" si="7"/>
+        <v>23.287499999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12">
         <v>2</v>
       </c>
@@ -33849,23 +33897,27 @@
         <v>0.91999999999999993</v>
       </c>
       <c r="S12" s="106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.50478987106025375</v>
       </c>
       <c r="T12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-4.7898710602537475E-3</v>
       </c>
       <c r="U12" s="106">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.93178349342948485</v>
       </c>
       <c r="V12" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.8216506570515145E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="W12">
+        <f t="shared" si="7"/>
+        <v>23.287499999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13">
         <v>2</v>
       </c>
@@ -33921,23 +33973,27 @@
         <v>1.0899999999999999</v>
       </c>
       <c r="S13" s="106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.19763454662170338</v>
       </c>
       <c r="T13" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.30236545337829662</v>
       </c>
       <c r="U13" s="106">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.29929211369956682</v>
       </c>
       <c r="V13" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.70070788630043324</v>
       </c>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="W13">
+        <f t="shared" si="7"/>
+        <v>23.287499999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14">
         <v>2</v>
       </c>
@@ -33993,23 +34049,27 @@
         <v>1.0899999999999999</v>
       </c>
       <c r="S14" s="106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.16123982573229206</v>
       </c>
       <c r="T14" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.33876017426770794</v>
       </c>
       <c r="U14" s="106">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.27379815173453143</v>
       </c>
       <c r="V14" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.72620184826546863</v>
       </c>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="W14">
+        <f t="shared" si="7"/>
+        <v>23.287499999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15">
         <v>2</v>
       </c>
@@ -34065,23 +34125,27 @@
         <v>1.21</v>
       </c>
       <c r="S15" s="106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.12510567201520653</v>
       </c>
       <c r="T15" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.3748943279847935</v>
       </c>
       <c r="U15" s="106">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.24506544644212505</v>
       </c>
       <c r="V15" s="106">
         <f>F15-U15</f>
         <v>0.75493455355787498</v>
       </c>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="W15">
+        <f t="shared" si="7"/>
+        <v>23.287499999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16">
         <v>3</v>
       </c>
@@ -34137,7 +34201,7 @@
         <v>0.5</v>
       </c>
       <c r="T16" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U16" s="106">
@@ -34145,11 +34209,15 @@
         <v>1</v>
       </c>
       <c r="V16" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:22">
+      <c r="W16">
+        <f>AVERAGE(B16:B21)</f>
+        <v>23.583333333333332</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17">
         <v>3</v>
       </c>
@@ -34205,23 +34273,27 @@
         <v>0.96</v>
       </c>
       <c r="S17" s="106">
-        <f t="shared" ref="S17:S21" si="6">E17*J17/$J$16*P17</f>
+        <f t="shared" ref="S17:S21" si="8">E17*J17/$J$16*P17</f>
         <v>0.49034599428605019</v>
       </c>
       <c r="T17" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.6540057139498092E-3</v>
       </c>
       <c r="U17" s="106">
-        <f t="shared" ref="U17:U20" si="7">F17*M17/$M$16*P17</f>
+        <f t="shared" ref="U17:U20" si="9">F17*M17/$M$16*P17</f>
         <v>0.99931160406536035</v>
       </c>
       <c r="V17" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.8839593463965176E-4</v>
       </c>
-    </row>
-    <row r="18" spans="1:22">
+      <c r="W17">
+        <f>W16</f>
+        <v>23.583333333333332</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18">
         <v>3</v>
       </c>
@@ -34277,23 +34349,27 @@
         <v>0.97</v>
       </c>
       <c r="S18" s="106">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.3700954773881352</v>
       </c>
       <c r="T18" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.1299045226118648</v>
       </c>
       <c r="U18" s="106">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.57651938219972887</v>
       </c>
       <c r="V18" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.42348061780027113</v>
       </c>
-    </row>
-    <row r="19" spans="1:22">
+      <c r="W18">
+        <f t="shared" ref="W18:W21" si="10">W17</f>
+        <v>23.583333333333332</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19">
         <v>3</v>
       </c>
@@ -34349,23 +34425,27 @@
         <v>1</v>
       </c>
       <c r="S19" s="106">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.34355892516770808</v>
       </c>
       <c r="T19" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.15644107483229192</v>
       </c>
       <c r="U19" s="106">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.33219163628176135</v>
       </c>
       <c r="V19" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.6678083637182386</v>
       </c>
-    </row>
-    <row r="20" spans="1:22">
+      <c r="W19">
+        <f t="shared" si="10"/>
+        <v>23.583333333333332</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20">
         <v>3</v>
       </c>
@@ -34421,23 +34501,27 @@
         <v>1.06</v>
       </c>
       <c r="S20" s="106">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.10216442908523762</v>
       </c>
       <c r="T20" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.3978355709147624</v>
       </c>
       <c r="U20" s="106">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.18606054980716089</v>
       </c>
       <c r="V20" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.81393945019283909</v>
       </c>
-    </row>
-    <row r="21" spans="1:22">
+      <c r="W20">
+        <f t="shared" si="10"/>
+        <v>23.583333333333332</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21">
         <v>3</v>
       </c>
@@ -34493,11 +34577,11 @@
         <v>1.1099999999999999</v>
       </c>
       <c r="S21" s="106">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-5.1326971439329527E-3</v>
       </c>
       <c r="T21" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.50513269714393294</v>
       </c>
       <c r="U21" s="106">
@@ -34505,11 +34589,15 @@
         <v>3.3306375957334548E-3</v>
       </c>
       <c r="V21" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.99666936240426651</v>
       </c>
-    </row>
-    <row r="22" spans="1:22">
+      <c r="W21">
+        <f t="shared" si="10"/>
+        <v>23.583333333333332</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22">
         <v>4</v>
       </c>
@@ -34565,7 +34653,7 @@
         <v>1</v>
       </c>
       <c r="T22" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U22" s="106">
@@ -34573,11 +34661,15 @@
         <v>2</v>
       </c>
       <c r="V22" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:22">
+      <c r="W22">
+        <f>AVERAGE(B22:B26)</f>
+        <v>22.119999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23">
         <v>4</v>
       </c>
@@ -34633,23 +34725,27 @@
         <v>0.97000000000000008</v>
       </c>
       <c r="S23" s="106">
-        <f t="shared" ref="S23:S26" si="8">E23*J23/$J$22*P23</f>
+        <f t="shared" ref="S23:S26" si="11">E23*J23/$J$22*P23</f>
         <v>0.94972437654669173</v>
       </c>
       <c r="T23" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.0275623453308271E-2</v>
       </c>
       <c r="U23" s="106">
-        <f t="shared" ref="U23:U26" si="9">F23*M23/$M$22*P23</f>
+        <f t="shared" ref="U23:U26" si="12">F23*M23/$M$22*P23</f>
         <v>1.6603645830648277</v>
       </c>
       <c r="V23" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.3396354169351723</v>
       </c>
-    </row>
-    <row r="24" spans="1:22">
+      <c r="W23">
+        <f>W22</f>
+        <v>22.119999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24">
         <v>4</v>
       </c>
@@ -34705,23 +34801,27 @@
         <v>0.97000000000000008</v>
       </c>
       <c r="S24" s="106">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.91429040581036625</v>
       </c>
       <c r="T24" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.5709594189633753E-2</v>
       </c>
       <c r="U24" s="106">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.3913232117540919</v>
       </c>
       <c r="V24" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.6086767882459081</v>
       </c>
-    </row>
-    <row r="25" spans="1:22">
+      <c r="W24">
+        <f t="shared" ref="W24:W26" si="13">W23</f>
+        <v>22.119999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25">
         <v>4</v>
       </c>
@@ -34777,23 +34877,27 @@
         <v>1.1400000000000001</v>
       </c>
       <c r="S25" s="106">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.34656696481740229</v>
       </c>
       <c r="T25" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.65343303518259765</v>
       </c>
       <c r="U25" s="106">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>6.9495858299265375E-3</v>
       </c>
       <c r="V25" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.9930504141700736</v>
       </c>
-    </row>
-    <row r="26" spans="1:22">
+      <c r="W25">
+        <f t="shared" si="13"/>
+        <v>22.119999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
       <c r="A26">
         <v>4</v>
       </c>
@@ -34849,23 +34953,27 @@
         <v>1.1800000000000002</v>
       </c>
       <c r="S26" s="106">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-2.5221449013588838E-3</v>
       </c>
       <c r="T26" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.0025221449013588</v>
       </c>
       <c r="U26" s="106">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2.9941503901018177E-3</v>
       </c>
       <c r="V26" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.9970058496098981</v>
       </c>
-    </row>
-    <row r="27" spans="1:22">
+      <c r="W26">
+        <f t="shared" si="13"/>
+        <v>22.119999999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
       <c r="A27">
         <v>5</v>
       </c>
@@ -34921,7 +35029,7 @@
         <v>1</v>
       </c>
       <c r="T27" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U27" s="106">
@@ -34929,11 +35037,15 @@
         <v>2</v>
       </c>
       <c r="V27" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:22">
+      <c r="W27" s="109">
+        <f>AVERAGE(B27:B32)</f>
+        <v>21.45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
       <c r="A28">
         <v>5</v>
       </c>
@@ -34989,23 +35101,27 @@
         <v>1.98</v>
       </c>
       <c r="S28" s="106">
-        <f t="shared" ref="S28:S32" si="10">E28*J28/$J$27*P28</f>
+        <f t="shared" ref="S28:S32" si="14">E28*J28/$J$27*P28</f>
         <v>1.0604711380642506</v>
       </c>
       <c r="T28" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-6.047113806425064E-2</v>
       </c>
       <c r="U28" s="106">
-        <f t="shared" ref="U28:U32" si="11">F28*M28/$M$27*P28</f>
+        <f t="shared" ref="U28:U32" si="15">F28*M28/$M$27*P28</f>
         <v>1.7573086194181811</v>
       </c>
       <c r="V28" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.24269138058181894</v>
       </c>
-    </row>
-    <row r="29" spans="1:22">
+      <c r="W28">
+        <f>W27</f>
+        <v>21.45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
       <c r="A29">
         <v>5</v>
       </c>
@@ -35061,23 +35177,27 @@
         <v>1.97</v>
       </c>
       <c r="S29" s="106">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1.0337587382956317</v>
       </c>
       <c r="T29" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-3.3758738295631696E-2</v>
       </c>
       <c r="U29" s="106">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1.6091298306054833</v>
       </c>
       <c r="V29" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.39087016939451669</v>
       </c>
-    </row>
-    <row r="30" spans="1:22">
+      <c r="W29">
+        <f t="shared" ref="W29:W32" si="16">W28</f>
+        <v>21.45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
       <c r="A30">
         <v>5</v>
       </c>
@@ -35133,23 +35253,27 @@
         <v>1.98</v>
       </c>
       <c r="S30" s="106">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.9079274998933855</v>
       </c>
       <c r="T30" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.2072500106614497E-2</v>
       </c>
       <c r="U30" s="106">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1.1421919611900542</v>
       </c>
       <c r="V30" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.85780803880994583</v>
       </c>
-    </row>
-    <row r="31" spans="1:22">
+      <c r="W30">
+        <f t="shared" si="16"/>
+        <v>21.45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
       <c r="A31">
         <v>5</v>
       </c>
@@ -35205,23 +35329,27 @@
         <v>2.02</v>
       </c>
       <c r="S31" s="106">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.67129377622308795</v>
       </c>
       <c r="T31" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.32870622377691205</v>
       </c>
       <c r="U31" s="106">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.66211418445180659</v>
       </c>
       <c r="V31" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.3378858155481934</v>
       </c>
-    </row>
-    <row r="32" spans="1:22">
+      <c r="W31">
+        <f t="shared" si="16"/>
+        <v>21.45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
       <c r="A32">
         <v>5</v>
       </c>
@@ -35277,23 +35405,27 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="S32" s="106">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-4.1088960305475392E-3</v>
       </c>
       <c r="T32" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.0041088960305475</v>
       </c>
       <c r="U32" s="106">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>2.9422159252668516E-3</v>
       </c>
       <c r="V32" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.9970577840747332</v>
       </c>
-    </row>
-    <row r="33" spans="1:22">
+      <c r="W32">
+        <f t="shared" si="16"/>
+        <v>21.45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
       <c r="A33">
         <v>6</v>
       </c>
@@ -35349,7 +35481,7 @@
         <v>1</v>
       </c>
       <c r="T33" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U33" s="106">
@@ -35357,11 +35489,15 @@
         <v>2</v>
       </c>
       <c r="V33" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:22">
+      <c r="W33" s="109">
+        <f>AVERAGE(B33:B40)</f>
+        <v>23.074999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
       <c r="A34">
         <v>6</v>
       </c>
@@ -35417,23 +35553,27 @@
         <v>1.94</v>
       </c>
       <c r="S34" s="106">
-        <f t="shared" ref="S34:S40" si="12">E34*J34/$J$33*P34</f>
+        <f t="shared" ref="S34:S40" si="17">E34*J34/$J$33*P34</f>
         <v>0.98626065132261365</v>
       </c>
       <c r="T34" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.3739348677386354E-2</v>
       </c>
       <c r="U34" s="106">
-        <f t="shared" ref="U34:U40" si="13">F34*M34/$M$33*P34</f>
+        <f t="shared" ref="U34:U40" si="18">F34*M34/$M$33*P34</f>
         <v>1.7825883099976125</v>
       </c>
       <c r="V34" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.21741169000238747</v>
       </c>
-    </row>
-    <row r="35" spans="1:22">
+      <c r="W34">
+        <f>W33</f>
+        <v>23.074999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
       <c r="A35">
         <v>6</v>
       </c>
@@ -35489,23 +35629,27 @@
         <v>1.95</v>
       </c>
       <c r="S35" s="106">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0.88763094274632381</v>
       </c>
       <c r="T35" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.11236905725367619</v>
       </c>
       <c r="U35" s="106">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>1.3369466654582298</v>
       </c>
       <c r="V35" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.66305333454177018</v>
       </c>
-    </row>
-    <row r="36" spans="1:22">
+      <c r="W35">
+        <f t="shared" ref="W35:W40" si="19">W34</f>
+        <v>23.074999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
       <c r="A36">
         <v>6</v>
       </c>
@@ -35561,23 +35705,27 @@
         <v>1.99</v>
       </c>
       <c r="S36" s="106">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0.71885424255016206</v>
       </c>
       <c r="T36" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.28114575744983794</v>
       </c>
       <c r="U36" s="106">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0.86907737218693792</v>
       </c>
       <c r="V36" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.130922627813062</v>
       </c>
-    </row>
-    <row r="37" spans="1:22">
+      <c r="W36">
+        <f t="shared" si="19"/>
+        <v>23.074999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
       <c r="A37">
         <v>6</v>
       </c>
@@ -35633,23 +35781,27 @@
         <v>2.0299999999999998</v>
       </c>
       <c r="S37" s="106">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0.57758493856610371</v>
       </c>
       <c r="T37" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.42241506143389629</v>
       </c>
       <c r="U37" s="106">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0.57057971074692637</v>
       </c>
       <c r="V37" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.4294202892530736</v>
       </c>
-    </row>
-    <row r="38" spans="1:22">
+      <c r="W37">
+        <f t="shared" si="19"/>
+        <v>23.074999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
       <c r="A38">
         <v>6</v>
       </c>
@@ -35705,23 +35857,27 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="S38" s="106">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0.34246908875558152</v>
       </c>
       <c r="T38" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.65753091124441854</v>
       </c>
       <c r="U38" s="106">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0.33846928228125861</v>
       </c>
       <c r="V38" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.6615307177187413</v>
       </c>
-    </row>
-    <row r="39" spans="1:22">
+      <c r="W38">
+        <f t="shared" si="19"/>
+        <v>23.074999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
       <c r="A39">
         <v>6</v>
       </c>
@@ -35777,23 +35933,27 @@
         <v>2.0999999999999996</v>
       </c>
       <c r="S39" s="106">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0.1235625421622949</v>
       </c>
       <c r="T39" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.8764374578377051</v>
       </c>
       <c r="U39" s="106">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0.19642949542785082</v>
       </c>
       <c r="V39" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.8035705045721491</v>
       </c>
-    </row>
-    <row r="40" spans="1:22">
+      <c r="W39">
+        <f t="shared" si="19"/>
+        <v>23.074999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
       <c r="A40">
         <v>6</v>
       </c>
@@ -35849,23 +36009,27 @@
         <v>2.1399999999999997</v>
       </c>
       <c r="S40" s="106">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>-2.9989430281828055E-3</v>
       </c>
       <c r="T40" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.0029989430281827</v>
       </c>
       <c r="U40" s="106">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>2.6911676014617541E-3</v>
       </c>
       <c r="V40" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.9973088323985382</v>
       </c>
-    </row>
-    <row r="41" spans="1:22">
+      <c r="W40">
+        <f t="shared" si="19"/>
+        <v>23.074999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
       <c r="A41">
         <v>7</v>
       </c>
@@ -35921,7 +36085,7 @@
         <v>0.5</v>
       </c>
       <c r="T41" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U41" s="106">
@@ -35929,11 +36093,15 @@
         <v>1</v>
       </c>
       <c r="V41" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:22">
+      <c r="W41" s="109">
+        <f>AVERAGE(B41:B45)</f>
+        <v>20.74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
       <c r="A42">
         <v>7</v>
       </c>
@@ -35989,23 +36157,27 @@
         <v>2.02</v>
       </c>
       <c r="S42" s="106">
-        <f t="shared" ref="S42:S45" si="14">E42*J42/$J$41*P42</f>
+        <f t="shared" ref="S42:S45" si="20">E42*J42/$J$41*P42</f>
         <v>0.47746827915855139</v>
       </c>
       <c r="T42" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.253172084144861E-2</v>
       </c>
       <c r="U42" s="106">
-        <f t="shared" ref="U42:U45" si="15">F42*M42/$M$41*P42</f>
+        <f t="shared" ref="U42:U45" si="21">F42*M42/$M$41*P42</f>
         <v>0.97272709045517847</v>
       </c>
       <c r="V42" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.7272909544821533E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:22">
+      <c r="W42">
+        <f>W41</f>
+        <v>20.74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
       <c r="A43">
         <v>7</v>
       </c>
@@ -36061,23 +36233,27 @@
         <v>1.9900000000000002</v>
       </c>
       <c r="S43" s="106">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0.44351471991805885</v>
       </c>
       <c r="T43" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.6485280081941147E-2</v>
       </c>
       <c r="U43" s="106">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0.67800390010585376</v>
       </c>
       <c r="V43" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.32199609989414624</v>
       </c>
-    </row>
-    <row r="44" spans="1:22">
+      <c r="W43">
+        <f t="shared" ref="W43:W45" si="22">W42</f>
+        <v>20.74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
       <c r="A44">
         <v>7</v>
       </c>
@@ -36133,23 +36309,27 @@
         <v>1.9200000000000002</v>
       </c>
       <c r="S44" s="106">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0.34483082005798987</v>
       </c>
       <c r="T44" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.15516917994201013</v>
       </c>
       <c r="U44" s="106">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0.36696417480090626</v>
       </c>
       <c r="V44" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.63303582519909374</v>
       </c>
-    </row>
-    <row r="45" spans="1:22">
+      <c r="W44">
+        <f t="shared" si="22"/>
+        <v>20.74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
       <c r="A45">
         <v>7</v>
       </c>
@@ -36205,23 +36385,27 @@
         <v>1.8000000000000003</v>
       </c>
       <c r="S45" s="106">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>8.0596504569097754E-3</v>
       </c>
       <c r="T45" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.49194034954309024</v>
       </c>
       <c r="U45" s="106">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>7.6390497360260667E-3</v>
       </c>
       <c r="V45" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.99236095026397397</v>
       </c>
-    </row>
-    <row r="46" spans="1:22">
+      <c r="W45">
+        <f t="shared" si="22"/>
+        <v>20.74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
       <c r="A46">
         <v>8</v>
       </c>
@@ -36277,7 +36461,7 @@
         <v>1</v>
       </c>
       <c r="T46" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U46" s="106">
@@ -36285,11 +36469,15 @@
         <v>2</v>
       </c>
       <c r="V46" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:22">
+      <c r="W46" s="109">
+        <f>AVERAGE(B46:B51)</f>
+        <v>22.450000000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23">
       <c r="A47">
         <v>8</v>
       </c>
@@ -36345,23 +36533,27 @@
         <v>1.8800000000000001</v>
       </c>
       <c r="S47" s="106">
-        <f t="shared" ref="S47:S51" si="16">E47*J47/$J$46*P47</f>
+        <f t="shared" ref="S47:S51" si="23">E47*J47/$J$46*P47</f>
         <v>0.98681783810877888</v>
       </c>
       <c r="T47" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.3182161891221122E-2</v>
       </c>
       <c r="U47" s="106">
-        <f t="shared" ref="U47:U51" si="17">F47*M47/$M$46*P47</f>
+        <f t="shared" ref="U47:U51" si="24">F47*M47/$M$46*P47</f>
         <v>1.8163487284106026</v>
       </c>
       <c r="V47" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.18365127158939742</v>
       </c>
-    </row>
-    <row r="48" spans="1:22">
+      <c r="W47">
+        <f>W46</f>
+        <v>22.450000000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
       <c r="A48">
         <v>8</v>
       </c>
@@ -36417,23 +36609,27 @@
         <v>1.9100000000000001</v>
       </c>
       <c r="S48" s="106">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>0.9081829231098385</v>
       </c>
       <c r="T48" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.1817076890161498E-2</v>
       </c>
       <c r="U48" s="106">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1.3589318079141641</v>
       </c>
       <c r="V48" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.64106819208583588</v>
       </c>
-    </row>
-    <row r="49" spans="1:22">
+      <c r="W48">
+        <f t="shared" ref="W48:W51" si="25">W47</f>
+        <v>22.450000000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23">
       <c r="A49">
         <v>8</v>
       </c>
@@ -36489,23 +36685,27 @@
         <v>1.9600000000000002</v>
       </c>
       <c r="S49" s="106">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>0.77067216868402233</v>
       </c>
       <c r="T49" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.22932783131597767</v>
       </c>
       <c r="U49" s="106">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>0.98488315475809129</v>
       </c>
       <c r="V49" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0151168452419088</v>
       </c>
-    </row>
-    <row r="50" spans="1:22">
+      <c r="W49">
+        <f t="shared" si="25"/>
+        <v>22.450000000000003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23">
       <c r="A50">
         <v>8</v>
       </c>
@@ -36561,23 +36761,27 @@
         <v>2.02</v>
       </c>
       <c r="S50" s="106">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>0.45098039394201489</v>
       </c>
       <c r="T50" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.54901960605798505</v>
       </c>
       <c r="U50" s="106">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>0.44220735260470517</v>
       </c>
       <c r="V50" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.5577926473952948</v>
       </c>
-    </row>
-    <row r="51" spans="1:22">
+      <c r="W50">
+        <f t="shared" si="25"/>
+        <v>22.450000000000003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23">
       <c r="A51">
         <v>8</v>
       </c>
@@ -36633,23 +36837,27 @@
         <v>2.02</v>
       </c>
       <c r="S51" s="106">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>2.7234939883960946E-2</v>
       </c>
       <c r="T51" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.97276506011603903</v>
       </c>
       <c r="U51" s="106">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>0.15301356797056542</v>
       </c>
       <c r="V51" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.8469864320294347</v>
       </c>
-    </row>
-    <row r="52" spans="1:22">
+      <c r="W51">
+        <f t="shared" si="25"/>
+        <v>22.450000000000003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23">
       <c r="A52">
         <v>9</v>
       </c>
@@ -36705,7 +36913,7 @@
         <v>1.4999999999999998</v>
       </c>
       <c r="T52" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U52" s="106">
@@ -36713,11 +36921,15 @@
         <v>1.5</v>
       </c>
       <c r="V52" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:22">
+      <c r="W52" s="109">
+        <f>AVERAGE(B52:B59)</f>
+        <v>20.737499999999997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23">
       <c r="A53">
         <v>9</v>
       </c>
@@ -36773,23 +36985,27 @@
         <v>1.96</v>
       </c>
       <c r="S53" s="106">
-        <f t="shared" ref="S53:S59" si="18">E53*J53/$J$52*P53</f>
+        <f t="shared" ref="S53:S59" si="26">E53*J53/$J$52*P53</f>
         <v>1.5525032891439019</v>
       </c>
       <c r="T53" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-5.2503289143901899E-2</v>
       </c>
       <c r="U53" s="106">
-        <f t="shared" ref="U53:U59" si="19">F53*M53/$M$52*P53</f>
+        <f t="shared" ref="U53:U59" si="27">F53*M53/$M$52*P53</f>
         <v>1.5192218236047421</v>
       </c>
       <c r="V53" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-1.9221823604742116E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:22">
+      <c r="W53">
+        <f>W52</f>
+        <v>20.737499999999997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23">
       <c r="A54">
         <v>9</v>
       </c>
@@ -36845,23 +37061,27 @@
         <v>1.9</v>
       </c>
       <c r="S54" s="106">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>1.5159643969752201</v>
       </c>
       <c r="T54" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-1.5964396975220119E-2</v>
       </c>
       <c r="U54" s="106">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>1.2632142077116</v>
       </c>
       <c r="V54" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.23678579228840002</v>
       </c>
-    </row>
-    <row r="55" spans="1:22">
+      <c r="W54">
+        <f t="shared" ref="W54:W59" si="28">W53</f>
+        <v>20.737499999999997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23">
       <c r="A55">
         <v>9</v>
       </c>
@@ -36917,23 +37137,27 @@
         <v>1.88</v>
       </c>
       <c r="S55" s="106">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>1.4473458095914709</v>
       </c>
       <c r="T55" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.2654190408529145E-2</v>
       </c>
       <c r="U55" s="106">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>1.0812238111757477</v>
       </c>
       <c r="V55" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.41877618882425227</v>
       </c>
-    </row>
-    <row r="56" spans="1:22">
+      <c r="W55">
+        <f t="shared" si="28"/>
+        <v>20.737499999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23">
       <c r="A56">
         <v>9</v>
       </c>
@@ -36989,23 +37213,27 @@
         <v>1.86</v>
       </c>
       <c r="S56" s="106">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>1.3044039234264238</v>
       </c>
       <c r="T56" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.19559607657357625</v>
       </c>
       <c r="U56" s="106">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0.91131604089539964</v>
       </c>
       <c r="V56" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.58868395910460036</v>
       </c>
-    </row>
-    <row r="57" spans="1:22">
+      <c r="W56">
+        <f t="shared" si="28"/>
+        <v>20.737499999999997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23">
       <c r="A57">
         <v>9</v>
       </c>
@@ -37061,23 +37289,27 @@
         <v>1.92</v>
       </c>
       <c r="S57" s="106">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>1.1587726598150407</v>
       </c>
       <c r="T57" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.34122734018495926</v>
       </c>
       <c r="U57" s="106">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0.65358528980508324</v>
       </c>
       <c r="V57" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.84641471019491676</v>
       </c>
-    </row>
-    <row r="58" spans="1:22">
+      <c r="W57">
+        <f t="shared" si="28"/>
+        <v>20.737499999999997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23">
       <c r="A58">
         <v>9</v>
       </c>
@@ -37133,23 +37365,27 @@
         <v>1.84</v>
       </c>
       <c r="S58" s="106">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0.86944105182387266</v>
       </c>
       <c r="T58" s="106">
-        <f t="shared" ref="T58:T98" si="20">E58-S58</f>
+        <f t="shared" ref="T58:T98" si="29">E58-S58</f>
         <v>0.63055894817612734</v>
       </c>
       <c r="U58" s="106">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0.42274428861729685</v>
       </c>
       <c r="V58" s="106">
-        <f t="shared" ref="V58:V97" si="21">F58-U58</f>
+        <f t="shared" ref="V58:V97" si="30">F58-U58</f>
         <v>1.077255711382703</v>
       </c>
-    </row>
-    <row r="59" spans="1:22">
+      <c r="W58">
+        <f t="shared" si="28"/>
+        <v>20.737499999999997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23">
       <c r="A59">
         <v>9</v>
       </c>
@@ -37205,23 +37441,27 @@
         <v>1.96</v>
       </c>
       <c r="S59" s="106">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0.53753773234867597</v>
       </c>
       <c r="T59" s="106">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>0.96246226765132403</v>
       </c>
       <c r="U59" s="106">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0.28380113014939523</v>
       </c>
       <c r="V59" s="106">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>1.2161988698506048</v>
       </c>
-    </row>
-    <row r="60" spans="1:22">
+      <c r="W59">
+        <f t="shared" si="28"/>
+        <v>20.737499999999997</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23">
       <c r="A60">
         <v>10</v>
       </c>
@@ -37277,7 +37517,7 @@
         <v>1</v>
       </c>
       <c r="T60" s="106">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U60" s="106">
@@ -37285,11 +37525,15 @@
         <v>2</v>
       </c>
       <c r="V60" s="106">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:22">
+      <c r="W60" s="109">
+        <f>AVERAGE(B60:B66)</f>
+        <v>20.085714285714289</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23">
       <c r="A61">
         <v>10</v>
       </c>
@@ -37345,23 +37589,27 @@
         <v>1.96</v>
       </c>
       <c r="S61" s="106">
-        <f t="shared" ref="S61:S66" si="22">E61*J61/$J$60*P61</f>
+        <f t="shared" ref="S61:S66" si="31">E61*J61/$J$60*P61</f>
         <v>1.0254367619977738</v>
       </c>
       <c r="T61" s="106">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>-2.5436761997773782E-2</v>
       </c>
       <c r="U61" s="106">
-        <f t="shared" ref="U61:U66" si="23">F61*M61/$M$60*P61</f>
+        <f t="shared" ref="U61:U66" si="32">F61*M61/$M$60*P61</f>
         <v>2.0457439060510949</v>
       </c>
       <c r="V61" s="106">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>-4.5743906051094907E-2</v>
       </c>
-    </row>
-    <row r="62" spans="1:22">
+      <c r="W61">
+        <f>W60</f>
+        <v>20.085714285714289</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23">
       <c r="A62">
         <v>10</v>
       </c>
@@ -37417,23 +37665,27 @@
         <v>1.9</v>
       </c>
       <c r="S62" s="106">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>1.0183491477348661</v>
       </c>
       <c r="T62" s="106">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>-1.8349147734866067E-2</v>
       </c>
       <c r="U62" s="106">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v>1.6614636744136524</v>
       </c>
       <c r="V62" s="106">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>0.33853632558634761</v>
       </c>
-    </row>
-    <row r="63" spans="1:22">
+      <c r="W62">
+        <f t="shared" ref="W62:W66" si="33">W61</f>
+        <v>20.085714285714289</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23">
       <c r="A63">
         <v>10</v>
       </c>
@@ -37489,23 +37741,27 @@
         <v>1.88</v>
       </c>
       <c r="S63" s="106">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>0.95553605198015634</v>
       </c>
       <c r="T63" s="106">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>4.4463948019843658E-2</v>
       </c>
       <c r="U63" s="106">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v>1.4151517984345343</v>
       </c>
       <c r="V63" s="106">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>0.58484820156546569</v>
       </c>
-    </row>
-    <row r="64" spans="1:22">
+      <c r="W63">
+        <f t="shared" si="33"/>
+        <v>20.085714285714289</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23">
       <c r="A64">
         <v>10</v>
       </c>
@@ -37561,23 +37817,27 @@
         <v>1.8599999999999999</v>
       </c>
       <c r="S64" s="106">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>0.87501548461589329</v>
       </c>
       <c r="T64" s="106">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>0.12498451538410671</v>
       </c>
       <c r="U64" s="106">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v>1.1199142369330322</v>
       </c>
       <c r="V64" s="106">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>0.88008576306696784</v>
       </c>
-    </row>
-    <row r="65" spans="1:22">
+      <c r="W64">
+        <f t="shared" si="33"/>
+        <v>20.085714285714289</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23">
       <c r="A65">
         <v>10</v>
       </c>
@@ -37633,23 +37893,27 @@
         <v>1.92</v>
       </c>
       <c r="S65" s="106">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>0.45133485756080405</v>
       </c>
       <c r="T65" s="106">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>0.54866514243919595</v>
       </c>
       <c r="U65" s="106">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v>0.51184051618097426</v>
       </c>
       <c r="V65" s="106">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>1.4881594838190257</v>
       </c>
-    </row>
-    <row r="66" spans="1:22">
+      <c r="W65">
+        <f t="shared" si="33"/>
+        <v>20.085714285714289</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23">
       <c r="A66">
         <v>10</v>
       </c>
@@ -37705,23 +37969,27 @@
         <v>1.8399999999999999</v>
       </c>
       <c r="S66" s="106">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>0.36404054939052016</v>
       </c>
       <c r="T66" s="106">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>0.63595945060947989</v>
       </c>
       <c r="U66" s="106">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v>0.4466996915100912</v>
       </c>
       <c r="V66" s="106">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>1.5533003084899089</v>
       </c>
-    </row>
-    <row r="67" spans="1:22">
+      <c r="W66">
+        <f t="shared" si="33"/>
+        <v>20.085714285714289</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23">
       <c r="A67">
         <v>11</v>
       </c>
@@ -37777,7 +38045,7 @@
         <v>3.0000000000000004</v>
       </c>
       <c r="T67" s="106">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U67" s="106">
@@ -37785,11 +38053,15 @@
         <v>6</v>
       </c>
       <c r="V67" s="106">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:22">
+      <c r="W67" s="109">
+        <f>AVERAGE(B67:B72)</f>
+        <v>25.333333333333332</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23">
       <c r="A68">
         <v>11</v>
       </c>
@@ -37845,23 +38117,27 @@
         <v>2.1</v>
       </c>
       <c r="S68" s="106">
-        <f t="shared" ref="S68:S72" si="24">E68*J68/$J$67*P68</f>
+        <f t="shared" ref="S68:S72" si="34">E68*J68/$J$67*P68</f>
         <v>2.9150834155387577</v>
       </c>
       <c r="T68" s="106">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>8.4916584461242284E-2</v>
       </c>
       <c r="U68" s="106">
-        <f t="shared" ref="U68:U72" si="25">F68*M68/$M$67*P68</f>
+        <f t="shared" ref="U68:U72" si="35">F68*M68/$M$67*P68</f>
         <v>5.6794220934599648</v>
       </c>
       <c r="V68" s="106">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>0.32057790654003515</v>
       </c>
-    </row>
-    <row r="69" spans="1:22">
+      <c r="W68">
+        <f>W67</f>
+        <v>25.333333333333332</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23">
       <c r="A69">
         <v>11</v>
       </c>
@@ -37917,23 +38193,27 @@
         <v>1.97</v>
       </c>
       <c r="S69" s="106">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>2.5523000529874498</v>
       </c>
       <c r="T69" s="106">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>0.44769994701255023</v>
       </c>
       <c r="U69" s="106">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>3.7602648873264326</v>
       </c>
       <c r="V69" s="106">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>2.2397351126735674</v>
       </c>
-    </row>
-    <row r="70" spans="1:22">
+      <c r="W69">
+        <f t="shared" ref="W69:W72" si="36">W68</f>
+        <v>25.333333333333332</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23">
       <c r="A70">
         <v>11</v>
       </c>
@@ -37989,23 +38269,27 @@
         <v>2.0700000000000003</v>
       </c>
       <c r="S70" s="106">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>2.4210190464623627</v>
       </c>
       <c r="T70" s="106">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>0.57898095353763734</v>
       </c>
       <c r="U70" s="106">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>3.1126883315171945</v>
       </c>
       <c r="V70" s="106">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>2.8873116684828055</v>
       </c>
-    </row>
-    <row r="71" spans="1:22">
+      <c r="W70">
+        <f t="shared" si="36"/>
+        <v>25.333333333333332</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23">
       <c r="A71">
         <v>11</v>
       </c>
@@ -38061,23 +38345,27 @@
         <v>2.0700000000000003</v>
       </c>
       <c r="S71" s="106">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>1.911383791549738</v>
       </c>
       <c r="T71" s="106">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>1.088616208450262</v>
       </c>
       <c r="U71" s="106">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>2.0698387506410718</v>
       </c>
       <c r="V71" s="106">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>3.9301612493589282</v>
       </c>
-    </row>
-    <row r="72" spans="1:22">
+      <c r="W71">
+        <f t="shared" si="36"/>
+        <v>25.333333333333332</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23">
       <c r="A72">
         <v>11</v>
       </c>
@@ -38133,23 +38421,27 @@
         <v>2.16</v>
       </c>
       <c r="S72" s="106">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>1.4822580426457617</v>
       </c>
       <c r="T72" s="106">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>1.5177419573542383</v>
       </c>
       <c r="U72" s="106">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>1.3549183054653711</v>
       </c>
       <c r="V72" s="106">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>4.6450816945346292</v>
       </c>
-    </row>
-    <row r="73" spans="1:22">
+      <c r="W72">
+        <f t="shared" si="36"/>
+        <v>25.333333333333332</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23">
       <c r="A73">
         <v>12</v>
       </c>
@@ -38205,7 +38497,7 @@
         <v>1</v>
       </c>
       <c r="T73" s="106">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U73" s="106">
@@ -38213,11 +38505,15 @@
         <v>2</v>
       </c>
       <c r="V73" s="106">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:22">
+      <c r="W73" s="109">
+        <f>AVERAGE(B73:B78)</f>
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23">
       <c r="A74">
         <v>12</v>
       </c>
@@ -38273,23 +38569,27 @@
         <v>1.98</v>
       </c>
       <c r="S74" s="106">
-        <f t="shared" ref="S74:S78" si="26">E74*J74/$J$73*P74</f>
+        <f t="shared" ref="S74:S78" si="37">E74*J74/$J$73*P74</f>
         <v>1.0213814169101452</v>
       </c>
       <c r="T74" s="106">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>-2.1381416910145168E-2</v>
       </c>
       <c r="U74" s="106">
-        <f t="shared" ref="U74:U78" si="27">F74*M74/$M$73*P74</f>
+        <f t="shared" ref="U74:U78" si="38">F74*M74/$M$73*P74</f>
         <v>1.7613744621044998</v>
       </c>
       <c r="V74" s="106">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>0.23862553789550023</v>
       </c>
-    </row>
-    <row r="75" spans="1:22">
+      <c r="W74">
+        <f>W73</f>
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23">
       <c r="A75">
         <v>12</v>
       </c>
@@ -38345,23 +38645,27 @@
         <v>1.98</v>
       </c>
       <c r="S75" s="106">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v>0.91968477984649544</v>
       </c>
       <c r="T75" s="106">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>8.0315220153504563E-2</v>
       </c>
       <c r="U75" s="106">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v>1.2121452076105872</v>
       </c>
       <c r="V75" s="106">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>0.78785479238941281</v>
       </c>
-    </row>
-    <row r="76" spans="1:22">
+      <c r="W75">
+        <f t="shared" ref="W75:W78" si="39">W74</f>
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23">
       <c r="A76">
         <v>12</v>
       </c>
@@ -38417,23 +38721,27 @@
         <v>1.99</v>
       </c>
       <c r="S76" s="106">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v>0.73598963655717176</v>
       </c>
       <c r="T76" s="106">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>0.26401036344282824</v>
       </c>
       <c r="U76" s="106">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v>0.57270304977862052</v>
       </c>
       <c r="V76" s="106">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>1.4272969502213795</v>
       </c>
-    </row>
-    <row r="77" spans="1:22">
+      <c r="W76">
+        <f t="shared" si="39"/>
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23">
       <c r="A77">
         <v>12</v>
       </c>
@@ -38489,23 +38797,27 @@
         <v>1.0499999999999998</v>
       </c>
       <c r="S77" s="106">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v>0.39644540346913443</v>
       </c>
       <c r="T77" s="106">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>0.60355459653086552</v>
       </c>
       <c r="U77" s="106">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v>0.17382807922538399</v>
       </c>
       <c r="V77" s="106">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>1.8261719207746161</v>
       </c>
-    </row>
-    <row r="78" spans="1:22">
+      <c r="W77">
+        <f t="shared" si="39"/>
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23">
       <c r="A78">
         <v>12</v>
       </c>
@@ -38561,23 +38873,27 @@
         <v>2.15</v>
       </c>
       <c r="S78" s="106">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v>7.389152958317163E-3</v>
       </c>
       <c r="T78" s="106">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>0.99261084704168279</v>
       </c>
       <c r="U78" s="106">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v>9.8469742408517254E-3</v>
       </c>
       <c r="V78" s="106">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>1.9901530257591482</v>
       </c>
-    </row>
-    <row r="79" spans="1:22">
+      <c r="W78">
+        <f t="shared" si="39"/>
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23">
       <c r="A79">
         <v>13</v>
       </c>
@@ -38633,7 +38949,7 @@
         <v>1</v>
       </c>
       <c r="T79" s="106">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U79" s="106">
@@ -38641,11 +38957,15 @@
         <v>2</v>
       </c>
       <c r="V79" s="106">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:22">
+      <c r="W79" s="109">
+        <f>AVERAGE(B79:B85)</f>
+        <v>20.542857142857144</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23">
       <c r="A80">
         <v>13</v>
       </c>
@@ -38701,23 +39021,27 @@
         <v>1.92</v>
       </c>
       <c r="S80" s="106">
-        <f t="shared" ref="S80:S85" si="28">E80*J80/$J$79*P80</f>
+        <f t="shared" ref="S80:S85" si="40">E80*J80/$J$79*P80</f>
         <v>1.0261552673303755</v>
       </c>
       <c r="T80" s="106">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>-2.6155267330375542E-2</v>
       </c>
       <c r="U80" s="106">
-        <f t="shared" ref="U80:U85" si="29">F80*M80/$M$79*P80</f>
+        <f t="shared" ref="U80:U85" si="41">F80*M80/$M$79*P80</f>
         <v>2.005942918282734</v>
       </c>
       <c r="V80" s="106">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>-5.9429182827339666E-3</v>
       </c>
-    </row>
-    <row r="81" spans="1:22">
+      <c r="W80">
+        <f>W79</f>
+        <v>20.542857142857144</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23">
       <c r="A81">
         <v>13</v>
       </c>
@@ -38773,23 +39097,27 @@
         <v>1.8800000000000001</v>
       </c>
       <c r="S81" s="106">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>1.0323470077410122</v>
       </c>
       <c r="T81" s="106">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>-3.2347007741012179E-2</v>
       </c>
       <c r="U81" s="106">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>1.9330907789014518</v>
       </c>
       <c r="V81" s="106">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>6.6909221098548244E-2</v>
       </c>
-    </row>
-    <row r="82" spans="1:22">
+      <c r="W81">
+        <f t="shared" ref="W81:W85" si="42">W80</f>
+        <v>20.542857142857144</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23">
       <c r="A82">
         <v>13</v>
       </c>
@@ -38845,23 +39173,27 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="S82" s="106">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>1.0332627643491328</v>
       </c>
       <c r="T82" s="106">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>-3.3262764349132778E-2</v>
       </c>
       <c r="U82" s="106">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>1.8179398895073093</v>
       </c>
       <c r="V82" s="106">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>0.18206011049269066</v>
       </c>
-    </row>
-    <row r="83" spans="1:22">
+      <c r="W82">
+        <f t="shared" si="42"/>
+        <v>20.542857142857144</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23">
       <c r="A83">
         <v>13</v>
       </c>
@@ -38917,23 +39249,27 @@
         <v>1.92</v>
       </c>
       <c r="S83" s="106">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>1.0069030338852503</v>
       </c>
       <c r="T83" s="106">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>-6.9030338852502648E-3</v>
       </c>
       <c r="U83" s="106">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>1.5595521959650618</v>
       </c>
       <c r="V83" s="106">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>0.44044780403493822</v>
       </c>
-    </row>
-    <row r="84" spans="1:22">
+      <c r="W83">
+        <f t="shared" si="42"/>
+        <v>20.542857142857144</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23">
       <c r="A84">
         <v>13</v>
       </c>
@@ -38989,23 +39325,27 @@
         <v>1.8099999999999998</v>
       </c>
       <c r="S84" s="106">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>0.66172162415637548</v>
       </c>
       <c r="T84" s="106">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>0.33827837584362452</v>
       </c>
       <c r="U84" s="106">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>0.3768568224606742</v>
       </c>
       <c r="V84" s="106">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>1.6231431775393257</v>
       </c>
-    </row>
-    <row r="85" spans="1:22">
+      <c r="W84">
+        <f t="shared" si="42"/>
+        <v>20.542857142857144</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23">
       <c r="A85">
         <v>13</v>
       </c>
@@ -39061,23 +39401,27 @@
         <v>1.8099999999999998</v>
       </c>
       <c r="S85" s="106">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>0.62667073657227468</v>
       </c>
       <c r="T85" s="106">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>0.37332926342772532</v>
       </c>
       <c r="U85" s="106">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>0.35097381096902286</v>
       </c>
       <c r="V85" s="106">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>1.6490261890309772</v>
       </c>
-    </row>
-    <row r="86" spans="1:22">
+      <c r="W85">
+        <f t="shared" si="42"/>
+        <v>20.542857142857144</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23">
       <c r="A86">
         <v>14</v>
       </c>
@@ -39133,7 +39477,7 @@
         <v>2.9999999999999996</v>
       </c>
       <c r="T86" s="106">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U86" s="106">
@@ -39141,11 +39485,15 @@
         <v>6</v>
       </c>
       <c r="V86" s="106">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:22">
+      <c r="W86" s="109">
+        <f>AVERAGE(B86:B91)</f>
+        <v>25.75</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23">
       <c r="A87">
         <v>14</v>
       </c>
@@ -39201,23 +39549,27 @@
         <v>1.95</v>
       </c>
       <c r="S87" s="106">
-        <f t="shared" ref="S87:S91" si="30">E87*J87/$J$86*P87</f>
+        <f t="shared" ref="S87:S91" si="43">E87*J87/$J$86*P87</f>
         <v>3.0200333043884156</v>
       </c>
       <c r="T87" s="106">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>-2.0033304388415552E-2</v>
       </c>
       <c r="U87" s="106">
-        <f t="shared" ref="U87:U91" si="31">F87*M87/$M$86*P87</f>
+        <f t="shared" ref="U87:U91" si="44">F87*M87/$M$86*P87</f>
         <v>5.2191851284595732</v>
       </c>
       <c r="V87" s="106">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>0.78081487154042684</v>
       </c>
-    </row>
-    <row r="88" spans="1:22">
+      <c r="W87">
+        <f>W86</f>
+        <v>25.75</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23">
       <c r="A88">
         <v>14</v>
       </c>
@@ -39273,23 +39625,27 @@
         <v>1.92</v>
       </c>
       <c r="S88" s="106">
+        <f t="shared" si="43"/>
+        <v>2.9314229691970821</v>
+      </c>
+      <c r="T88" s="106">
+        <f t="shared" si="29"/>
+        <v>6.8577030802917882E-2</v>
+      </c>
+      <c r="U88" s="106">
+        <f t="shared" si="44"/>
+        <v>4.5534024254811927</v>
+      </c>
+      <c r="V88" s="106">
         <f t="shared" si="30"/>
-        <v>2.9314229691970821</v>
-      </c>
-      <c r="T88" s="106">
-        <f t="shared" si="20"/>
-        <v>6.8577030802917882E-2</v>
-      </c>
-      <c r="U88" s="106">
-        <f t="shared" si="31"/>
-        <v>4.5534024254811927</v>
-      </c>
-      <c r="V88" s="106">
-        <f t="shared" si="21"/>
         <v>1.4465975745188073</v>
       </c>
-    </row>
-    <row r="89" spans="1:22">
+      <c r="W88">
+        <f t="shared" ref="W88:W91" si="45">W87</f>
+        <v>25.75</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23">
       <c r="A89">
         <v>14</v>
       </c>
@@ -39345,23 +39701,27 @@
         <v>1.92</v>
       </c>
       <c r="S89" s="106">
+        <f t="shared" si="43"/>
+        <v>2.6816887088133652</v>
+      </c>
+      <c r="T89" s="106">
+        <f t="shared" si="29"/>
+        <v>0.31831129118663481</v>
+      </c>
+      <c r="U89" s="106">
+        <f t="shared" si="44"/>
+        <v>3.483204629960921</v>
+      </c>
+      <c r="V89" s="106">
         <f t="shared" si="30"/>
-        <v>2.6816887088133652</v>
-      </c>
-      <c r="T89" s="106">
-        <f t="shared" si="20"/>
-        <v>0.31831129118663481</v>
-      </c>
-      <c r="U89" s="106">
-        <f t="shared" si="31"/>
-        <v>3.483204629960921</v>
-      </c>
-      <c r="V89" s="106">
-        <f t="shared" si="21"/>
         <v>2.516795370039079</v>
       </c>
-    </row>
-    <row r="90" spans="1:22">
+      <c r="W89">
+        <f t="shared" si="45"/>
+        <v>25.75</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23">
       <c r="A90">
         <v>14</v>
       </c>
@@ -39417,23 +39777,27 @@
         <v>1.97</v>
       </c>
       <c r="S90" s="106">
+        <f t="shared" si="43"/>
+        <v>2.2025007800634619</v>
+      </c>
+      <c r="T90" s="106">
+        <f t="shared" si="29"/>
+        <v>0.79749921993653805</v>
+      </c>
+      <c r="U90" s="106">
+        <f t="shared" si="44"/>
+        <v>2.4657627487996145</v>
+      </c>
+      <c r="V90" s="106">
         <f t="shared" si="30"/>
-        <v>2.2025007800634619</v>
-      </c>
-      <c r="T90" s="106">
-        <f t="shared" si="20"/>
-        <v>0.79749921993653805</v>
-      </c>
-      <c r="U90" s="106">
-        <f t="shared" si="31"/>
-        <v>2.4657627487996145</v>
-      </c>
-      <c r="V90" s="106">
-        <f t="shared" si="21"/>
         <v>3.5342372512003855</v>
       </c>
-    </row>
-    <row r="91" spans="1:22">
+      <c r="W90">
+        <f t="shared" si="45"/>
+        <v>25.75</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23">
       <c r="A91">
         <v>14</v>
       </c>
@@ -39489,23 +39853,27 @@
         <v>2.17</v>
       </c>
       <c r="S91" s="106">
+        <f t="shared" si="43"/>
+        <v>1.9746281254457283</v>
+      </c>
+      <c r="T91" s="106">
+        <f t="shared" si="29"/>
+        <v>1.0253718745542717</v>
+      </c>
+      <c r="U91" s="106">
+        <f t="shared" si="44"/>
+        <v>1.6594356365850331</v>
+      </c>
+      <c r="V91" s="106">
         <f t="shared" si="30"/>
-        <v>1.9746281254457283</v>
-      </c>
-      <c r="T91" s="106">
-        <f t="shared" si="20"/>
-        <v>1.0253718745542717</v>
-      </c>
-      <c r="U91" s="106">
-        <f t="shared" si="31"/>
-        <v>1.6594356365850331</v>
-      </c>
-      <c r="V91" s="106">
-        <f t="shared" si="21"/>
         <v>4.3405643634149671</v>
       </c>
-    </row>
-    <row r="92" spans="1:22">
+      <c r="W91">
+        <f t="shared" si="45"/>
+        <v>25.75</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23">
       <c r="A92">
         <v>15</v>
       </c>
@@ -39561,7 +39929,7 @@
         <v>2.9999999999999996</v>
       </c>
       <c r="T92" s="106">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U92" s="106">
@@ -39569,11 +39937,15 @@
         <v>6</v>
       </c>
       <c r="V92" s="106">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:22">
+      <c r="W92" s="109">
+        <f>AVERAGE(B92:B98)</f>
+        <v>24.485714285714288</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23">
       <c r="A93">
         <v>15</v>
       </c>
@@ -39629,23 +40001,27 @@
         <v>1.85</v>
       </c>
       <c r="S93" s="106">
-        <f t="shared" ref="S93:S98" si="32">E93*J93/$J$92*P93</f>
+        <f t="shared" ref="S93:S98" si="46">E93*J93/$J$92*P93</f>
         <v>2.9031783177942661</v>
       </c>
       <c r="T93" s="106">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>9.682168220573395E-2</v>
       </c>
       <c r="U93" s="106">
-        <f t="shared" ref="U93:U98" si="33">F93*M93/$M$92*P93</f>
+        <f t="shared" ref="U93:U98" si="47">F93*M93/$M$92*P93</f>
         <v>4.8881074144021559</v>
       </c>
       <c r="V93" s="106">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>1.1118925855978441</v>
       </c>
-    </row>
-    <row r="94" spans="1:22">
+      <c r="W93">
+        <f>W92</f>
+        <v>24.485714285714288</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23">
       <c r="A94">
         <v>15</v>
       </c>
@@ -39701,23 +40077,27 @@
         <v>1.83</v>
       </c>
       <c r="S94" s="106">
-        <f t="shared" si="32"/>
+        <f t="shared" si="46"/>
         <v>2.8616817133043391</v>
       </c>
       <c r="T94" s="106">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>0.13831828669566093</v>
       </c>
       <c r="U94" s="106">
-        <f t="shared" si="33"/>
+        <f t="shared" si="47"/>
         <v>4.3256204157330602</v>
       </c>
       <c r="V94" s="106">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>1.6743795842669398</v>
       </c>
-    </row>
-    <row r="95" spans="1:22">
+      <c r="W94">
+        <f t="shared" ref="W94:W98" si="48">W93</f>
+        <v>24.485714285714288</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23">
       <c r="A95">
         <v>15</v>
       </c>
@@ -39773,23 +40153,27 @@
         <v>1.8199999999999998</v>
       </c>
       <c r="S95" s="106">
-        <f t="shared" si="32"/>
+        <f t="shared" si="46"/>
         <v>2.6762898334196299</v>
       </c>
       <c r="T95" s="106">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>0.32371016658037011</v>
       </c>
       <c r="U95" s="106">
-        <f t="shared" si="33"/>
+        <f t="shared" si="47"/>
         <v>3.639678279171521</v>
       </c>
       <c r="V95" s="106">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>2.360321720828479</v>
       </c>
-    </row>
-    <row r="96" spans="1:22">
+      <c r="W95">
+        <f t="shared" si="48"/>
+        <v>24.485714285714288</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23">
       <c r="A96">
         <v>15</v>
       </c>
@@ -39845,23 +40229,27 @@
         <v>1.8900000000000001</v>
       </c>
       <c r="S96" s="106">
-        <f t="shared" si="32"/>
+        <f t="shared" si="46"/>
         <v>2.4311126610309941</v>
       </c>
       <c r="T96" s="106">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>0.5688873389690059</v>
       </c>
       <c r="U96" s="106">
-        <f t="shared" si="33"/>
+        <f t="shared" si="47"/>
         <v>3.0362125409309697</v>
       </c>
       <c r="V96" s="106">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>2.9637874590690303</v>
       </c>
-    </row>
-    <row r="97" spans="1:22">
+      <c r="W96">
+        <f t="shared" si="48"/>
+        <v>24.485714285714288</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23">
       <c r="A97">
         <v>15</v>
       </c>
@@ -39917,23 +40305,27 @@
         <v>1.9</v>
       </c>
       <c r="S97" s="106">
-        <f t="shared" si="32"/>
+        <f t="shared" si="46"/>
         <v>2.2491075205670312</v>
       </c>
       <c r="T97" s="106">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>0.75089247943296877</v>
       </c>
       <c r="U97" s="106">
-        <f t="shared" si="33"/>
+        <f t="shared" si="47"/>
         <v>2.5300180165086457</v>
       </c>
       <c r="V97" s="106">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>3.4699819834913543</v>
       </c>
-    </row>
-    <row r="98" spans="1:22">
+      <c r="W97">
+        <f t="shared" si="48"/>
+        <v>24.485714285714288</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23">
       <c r="A98">
         <v>15</v>
       </c>
@@ -39985,23 +40377,27 @@
         <v>2.66</v>
       </c>
       <c r="S98" s="106">
-        <f t="shared" si="32"/>
+        <f t="shared" si="46"/>
         <v>-1.1546876269346485E-2</v>
       </c>
       <c r="T98" s="106">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>3.0115468762693465</v>
       </c>
       <c r="U98" s="106">
-        <f t="shared" si="33"/>
+        <f t="shared" si="47"/>
         <v>9.6936341603593747E-3</v>
       </c>
       <c r="V98" s="106">
         <f>F98-U98</f>
         <v>5.9903063658396407</v>
       </c>
-    </row>
-    <row r="99" spans="1:22" ht="17.25">
+      <c r="W98">
+        <f t="shared" si="48"/>
+        <v>24.485714285714288</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" ht="17.5">
       <c r="A99">
         <v>16</v>
       </c>
@@ -40057,7 +40453,7 @@
         <v>3</v>
       </c>
       <c r="T99" s="106">
-        <f t="shared" ref="T99:T153" si="34">E99-S99</f>
+        <f t="shared" ref="T99:T153" si="49">E99-S99</f>
         <v>0</v>
       </c>
       <c r="U99" s="106">
@@ -40065,11 +40461,15 @@
         <v>6</v>
       </c>
       <c r="V99" s="106">
-        <f t="shared" ref="V99:V153" si="35">F99-U99</f>
+        <f t="shared" ref="V99:V153" si="50">F99-U99</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:22" ht="17.25">
+      <c r="W99" s="109">
+        <f>AVERAGE(B99:B105)</f>
+        <v>26.542857142857141</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" ht="17.5">
       <c r="A100">
         <v>16</v>
       </c>
@@ -40125,23 +40525,27 @@
         <v>2.99</v>
       </c>
       <c r="S100" s="106">
-        <f t="shared" ref="S100:S105" si="36">E100*J100/$J$99*P100</f>
+        <f t="shared" ref="S100:S105" si="51">E100*J100/$J$99*P100</f>
         <v>2.9645549790982315</v>
       </c>
       <c r="T100" s="106">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>3.5445020901768487E-2</v>
       </c>
       <c r="U100" s="106">
-        <f t="shared" ref="U100:U105" si="37">F100*M100/$M$99*P100</f>
+        <f t="shared" ref="U100:U105" si="52">F100*M100/$M$99*P100</f>
         <v>5.5740118768811442</v>
       </c>
       <c r="V100" s="106">
-        <f t="shared" si="35"/>
+        <f t="shared" si="50"/>
         <v>0.42598812311885581</v>
       </c>
-    </row>
-    <row r="101" spans="1:22" ht="17.25">
+      <c r="W100">
+        <f>W99</f>
+        <v>26.542857142857141</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" ht="17.5">
       <c r="A101">
         <v>16</v>
       </c>
@@ -40197,23 +40601,27 @@
         <v>3.0700000000000003</v>
       </c>
       <c r="S101" s="106">
-        <f t="shared" si="36"/>
+        <f t="shared" si="51"/>
         <v>2.5861915896003524</v>
       </c>
       <c r="T101" s="106">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>0.41380841039964755</v>
       </c>
       <c r="U101" s="106">
-        <f t="shared" si="37"/>
+        <f t="shared" si="52"/>
         <v>3.620600657921456</v>
       </c>
       <c r="V101" s="106">
-        <f t="shared" si="35"/>
+        <f t="shared" si="50"/>
         <v>2.379399342078544</v>
       </c>
-    </row>
-    <row r="102" spans="1:22" ht="17.25">
+      <c r="W101">
+        <f t="shared" ref="W101:W105" si="53">W100</f>
+        <v>26.542857142857141</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" ht="17.5">
       <c r="A102">
         <v>16</v>
       </c>
@@ -40269,23 +40677,27 @@
         <v>3.0900000000000003</v>
       </c>
       <c r="S102" s="106">
-        <f t="shared" si="36"/>
+        <f t="shared" si="51"/>
         <v>2.2531094782461616</v>
       </c>
       <c r="T102" s="106">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>0.74689052175383841</v>
       </c>
       <c r="U102" s="106">
-        <f t="shared" si="37"/>
+        <f t="shared" si="52"/>
         <v>2.5091964604006192</v>
       </c>
       <c r="V102" s="106">
-        <f t="shared" si="35"/>
+        <f t="shared" si="50"/>
         <v>3.4908035395993808</v>
       </c>
-    </row>
-    <row r="103" spans="1:22" ht="17.25">
+      <c r="W102">
+        <f t="shared" si="53"/>
+        <v>26.542857142857141</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" ht="17.5">
       <c r="A103">
         <v>16</v>
       </c>
@@ -40341,23 +40753,27 @@
         <v>3.0100000000000002</v>
       </c>
       <c r="S103" s="106">
-        <f t="shared" si="36"/>
+        <f t="shared" si="51"/>
         <v>1.8237903183517772</v>
       </c>
       <c r="T103" s="106">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>1.1762096816482228</v>
       </c>
       <c r="U103" s="106">
-        <f t="shared" si="37"/>
+        <f t="shared" si="52"/>
         <v>1.5976850911749172</v>
       </c>
       <c r="V103" s="106">
-        <f t="shared" si="35"/>
+        <f t="shared" si="50"/>
         <v>4.4023149088250833</v>
       </c>
-    </row>
-    <row r="104" spans="1:22" ht="17.25">
+      <c r="W103">
+        <f t="shared" si="53"/>
+        <v>26.542857142857141</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" ht="17.5">
       <c r="A104">
         <v>16</v>
       </c>
@@ -40413,23 +40829,27 @@
         <v>3.0100000000000002</v>
       </c>
       <c r="S104" s="106">
-        <f t="shared" si="36"/>
+        <f t="shared" si="51"/>
         <v>1.5611472900160226</v>
       </c>
       <c r="T104" s="106">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>1.4388527099839774</v>
       </c>
       <c r="U104" s="106">
-        <f t="shared" si="37"/>
+        <f t="shared" si="52"/>
         <v>0.96550784767629172</v>
       </c>
       <c r="V104" s="106">
-        <f t="shared" si="35"/>
+        <f t="shared" si="50"/>
         <v>5.0344921523237085</v>
       </c>
-    </row>
-    <row r="105" spans="1:22" ht="17.25">
+      <c r="W104">
+        <f t="shared" si="53"/>
+        <v>26.542857142857141</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" ht="17.5">
       <c r="A105">
         <v>16</v>
       </c>
@@ -40485,23 +40905,27 @@
         <v>3.1</v>
       </c>
       <c r="S105" s="106">
-        <f t="shared" si="36"/>
+        <f t="shared" si="51"/>
         <v>0.79224312600382907</v>
       </c>
       <c r="T105" s="106">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>2.2077568739961708</v>
       </c>
       <c r="U105" s="106">
-        <f t="shared" si="37"/>
+        <f t="shared" si="52"/>
         <v>0.47868750829170548</v>
       </c>
       <c r="V105" s="106">
-        <f t="shared" si="35"/>
+        <f t="shared" si="50"/>
         <v>5.5213124917082945</v>
       </c>
-    </row>
-    <row r="106" spans="1:22" ht="17.25">
+      <c r="W105">
+        <f t="shared" si="53"/>
+        <v>26.542857142857141</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" ht="17.5">
       <c r="A106">
         <v>17</v>
       </c>
@@ -40557,7 +40981,7 @@
         <v>1</v>
       </c>
       <c r="T106" s="106">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="U106" s="106">
@@ -40565,11 +40989,15 @@
         <v>2</v>
       </c>
       <c r="V106" s="106">
-        <f t="shared" si="35"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:22" ht="17.25">
+      <c r="W106" s="109">
+        <f>AVERAGE(B106:B110)</f>
+        <v>20.839999999999996</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" ht="17.5">
       <c r="A107">
         <v>17</v>
       </c>
@@ -40625,23 +41053,27 @@
         <v>2</v>
       </c>
       <c r="S107" s="106">
-        <f t="shared" ref="S107:S110" si="38">E107*J107/$J$106*P107</f>
+        <f t="shared" ref="S107:S110" si="54">E107*J107/$J$106*P107</f>
         <v>1.0931522439659647</v>
       </c>
       <c r="T107" s="106">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>-9.3152243965964665E-2</v>
       </c>
       <c r="U107" s="106">
-        <f t="shared" ref="U107:U110" si="39">F107*M107/$M$106*P107</f>
+        <f t="shared" ref="U107:U110" si="55">F107*M107/$M$106*P107</f>
         <v>1.914783917119917</v>
       </c>
       <c r="V107" s="106">
-        <f t="shared" si="35"/>
+        <f t="shared" si="50"/>
         <v>8.5216082880082977E-2</v>
       </c>
-    </row>
-    <row r="108" spans="1:22" ht="17.25">
+      <c r="W107">
+        <f>W106</f>
+        <v>20.839999999999996</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" ht="17.5">
       <c r="A108">
         <v>17</v>
       </c>
@@ -40697,23 +41129,27 @@
         <v>1.9</v>
       </c>
       <c r="S108" s="106">
-        <f t="shared" si="38"/>
+        <f t="shared" si="54"/>
         <v>1.0507040160759444</v>
       </c>
       <c r="T108" s="106">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>-5.0704016075944436E-2</v>
       </c>
       <c r="U108" s="106">
-        <f t="shared" si="39"/>
+        <f t="shared" si="55"/>
         <v>1.6375005314685311</v>
       </c>
       <c r="V108" s="106">
-        <f t="shared" si="35"/>
+        <f t="shared" si="50"/>
         <v>0.36249946853146886</v>
       </c>
-    </row>
-    <row r="109" spans="1:22">
+      <c r="W108">
+        <f t="shared" ref="W108:W110" si="56">W107</f>
+        <v>20.839999999999996</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23">
       <c r="A109">
         <v>17</v>
       </c>
@@ -40769,23 +41205,27 @@
         <v>1.9</v>
       </c>
       <c r="S109" s="106">
-        <f t="shared" si="38"/>
+        <f t="shared" si="54"/>
         <v>0.55165326272081883</v>
       </c>
       <c r="T109" s="106">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>0.44834673727918117</v>
       </c>
       <c r="U109" s="106">
-        <f t="shared" si="39"/>
+        <f t="shared" si="55"/>
         <v>0.29471699145299141</v>
       </c>
       <c r="V109" s="106">
-        <f t="shared" si="35"/>
+        <f t="shared" si="50"/>
         <v>1.7052830085470085</v>
       </c>
-    </row>
-    <row r="110" spans="1:22">
+      <c r="W109">
+        <f t="shared" si="56"/>
+        <v>20.839999999999996</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23">
       <c r="A110">
         <v>17</v>
       </c>
@@ -40841,23 +41281,27 @@
         <v>1.9</v>
       </c>
       <c r="S110" s="106">
-        <f t="shared" si="38"/>
+        <f t="shared" si="54"/>
         <v>0.51267612354436276</v>
       </c>
       <c r="T110" s="106">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>0.48732387645563724</v>
       </c>
       <c r="U110" s="106">
-        <f t="shared" si="39"/>
+        <f t="shared" si="55"/>
         <v>0.27737599999999996</v>
       </c>
       <c r="V110" s="106">
-        <f t="shared" si="35"/>
+        <f t="shared" si="50"/>
         <v>1.7226240000000002</v>
       </c>
-    </row>
-    <row r="111" spans="1:22">
+      <c r="W110">
+        <f t="shared" si="56"/>
+        <v>20.839999999999996</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23">
       <c r="A111">
         <v>18</v>
       </c>
@@ -40913,7 +41357,7 @@
         <v>1</v>
       </c>
       <c r="T111" s="106">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="U111" s="106">
@@ -40921,11 +41365,15 @@
         <v>2</v>
       </c>
       <c r="V111" s="106">
-        <f t="shared" si="35"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:22">
+      <c r="W111" s="109">
+        <f>AVERAGE(B111:B114)</f>
+        <v>21.75</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23">
       <c r="A112">
         <v>18</v>
       </c>
@@ -40981,23 +41429,27 @@
         <v>1.99</v>
       </c>
       <c r="S112" s="106">
-        <f t="shared" ref="S112:S114" si="40">E112*J112/$J$111*P112</f>
+        <f t="shared" ref="S112:S114" si="57">E112*J112/$J$111*P112</f>
         <v>0.9737276639913085</v>
       </c>
       <c r="T112" s="106">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>2.6272336008691499E-2</v>
       </c>
       <c r="U112" s="106">
-        <f t="shared" ref="U112:U114" si="41">F112*M112/$M$111*P112</f>
+        <f t="shared" ref="U112:U114" si="58">F112*M112/$M$111*P112</f>
         <v>1.6012602347528557</v>
       </c>
       <c r="V112" s="106">
-        <f t="shared" si="35"/>
+        <f t="shared" si="50"/>
         <v>0.39873976524714427</v>
       </c>
-    </row>
-    <row r="113" spans="1:22">
+      <c r="W112">
+        <f>W111</f>
+        <v>21.75</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23">
       <c r="A113">
         <v>18</v>
       </c>
@@ -41053,23 +41505,27 @@
         <v>1.99</v>
       </c>
       <c r="S113" s="106">
-        <f t="shared" si="40"/>
+        <f t="shared" si="57"/>
         <v>0.85747946601986835</v>
       </c>
       <c r="T113" s="106">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>0.14252053398013165</v>
       </c>
       <c r="U113" s="106">
-        <f t="shared" si="41"/>
+        <f t="shared" si="58"/>
         <v>0.93169760939710122</v>
       </c>
       <c r="V113" s="106">
-        <f t="shared" si="35"/>
+        <f t="shared" si="50"/>
         <v>1.0683023906028988</v>
       </c>
-    </row>
-    <row r="114" spans="1:22">
+      <c r="W113">
+        <f t="shared" ref="W113:W114" si="59">W112</f>
+        <v>21.75</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23">
       <c r="A114">
         <v>18</v>
       </c>
@@ -41125,23 +41581,27 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="S114" s="106">
-        <f t="shared" si="40"/>
+        <f t="shared" si="57"/>
         <v>2.2178766906551885E-2</v>
       </c>
       <c r="T114" s="106">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>0.97782123309344815</v>
       </c>
       <c r="U114" s="106">
-        <f t="shared" si="41"/>
+        <f t="shared" si="58"/>
         <v>1.9477935410555459E-2</v>
       </c>
       <c r="V114" s="106">
-        <f t="shared" si="35"/>
+        <f t="shared" si="50"/>
         <v>1.9805220645894446</v>
       </c>
-    </row>
-    <row r="115" spans="1:22">
+      <c r="W114">
+        <f t="shared" si="59"/>
+        <v>21.75</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23">
       <c r="A115">
         <v>19</v>
       </c>
@@ -41197,7 +41657,7 @@
         <v>1</v>
       </c>
       <c r="T115" s="106">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="U115" s="106">
@@ -41205,11 +41665,15 @@
         <v>2</v>
       </c>
       <c r="V115" s="106">
-        <f t="shared" si="35"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:22">
+      <c r="W115" s="109">
+        <f>AVERAGE(B115:B121)</f>
+        <v>20.814285714285717</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23">
       <c r="A116">
         <v>19</v>
       </c>
@@ -41265,23 +41729,27 @@
         <v>1.9100000000000001</v>
       </c>
       <c r="S116" s="106">
-        <f t="shared" ref="S116:S121" si="42">E116*J116/$J$115*P116</f>
+        <f t="shared" ref="S116:S121" si="60">E116*J116/$J$115*P116</f>
         <v>1.0159851526491908</v>
       </c>
       <c r="T116" s="106">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>-1.5985152649190759E-2</v>
       </c>
       <c r="U116" s="106">
-        <f t="shared" ref="U116:U121" si="43">F116*M116/$M$115*P116</f>
+        <f t="shared" ref="U116:U121" si="61">F116*M116/$M$115*P116</f>
         <v>1.90143436879636</v>
       </c>
       <c r="V116" s="106">
-        <f t="shared" si="35"/>
+        <f t="shared" si="50"/>
         <v>9.8565631203640036E-2</v>
       </c>
-    </row>
-    <row r="117" spans="1:22">
+      <c r="W116">
+        <f>W115</f>
+        <v>20.814285714285717</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23">
       <c r="A117">
         <v>19</v>
       </c>
@@ -41337,23 +41805,27 @@
         <v>1.86</v>
       </c>
       <c r="S117" s="106">
-        <f t="shared" si="42"/>
+        <f t="shared" si="60"/>
         <v>1.0032763124706214</v>
       </c>
       <c r="T117" s="106">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>-3.2763124706214342E-3</v>
       </c>
       <c r="U117" s="106">
-        <f t="shared" si="43"/>
+        <f t="shared" si="61"/>
         <v>1.6186289382015724</v>
       </c>
       <c r="V117" s="106">
-        <f t="shared" si="35"/>
+        <f t="shared" si="50"/>
         <v>0.38137106179842761</v>
       </c>
-    </row>
-    <row r="118" spans="1:22">
+      <c r="W117">
+        <f t="shared" ref="W117:W121" si="62">W116</f>
+        <v>20.814285714285717</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23">
       <c r="A118">
         <v>19</v>
       </c>
@@ -41409,23 +41881,27 @@
         <v>1.82</v>
       </c>
       <c r="S118" s="106">
-        <f t="shared" si="42"/>
+        <f t="shared" si="60"/>
         <v>0.73468760213869533</v>
       </c>
       <c r="T118" s="106">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>0.26531239786130467</v>
       </c>
       <c r="U118" s="106">
-        <f t="shared" si="43"/>
+        <f t="shared" si="61"/>
         <v>0.44508259250218168</v>
       </c>
       <c r="V118" s="106">
-        <f t="shared" si="35"/>
+        <f t="shared" si="50"/>
         <v>1.5549174074978183</v>
       </c>
-    </row>
-    <row r="119" spans="1:22">
+      <c r="W118">
+        <f t="shared" si="62"/>
+        <v>20.814285714285717</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23">
       <c r="A119">
         <v>19</v>
       </c>
@@ -41481,23 +41957,27 @@
         <v>1.84</v>
       </c>
       <c r="S119" s="106">
-        <f t="shared" si="42"/>
+        <f t="shared" si="60"/>
         <v>0.69137873087765855</v>
       </c>
       <c r="T119" s="106">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>0.30862126912234145</v>
       </c>
       <c r="U119" s="106">
-        <f t="shared" si="43"/>
+        <f t="shared" si="61"/>
         <v>0.40489753217013258</v>
       </c>
       <c r="V119" s="106">
-        <f t="shared" si="35"/>
+        <f t="shared" si="50"/>
         <v>1.5951024678298675</v>
       </c>
-    </row>
-    <row r="120" spans="1:22">
+      <c r="W119">
+        <f t="shared" si="62"/>
+        <v>20.814285714285717</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23">
       <c r="A120">
         <v>19</v>
       </c>
@@ -41553,23 +42033,27 @@
         <v>1.86</v>
       </c>
       <c r="S120" s="106">
-        <f t="shared" si="42"/>
+        <f t="shared" si="60"/>
         <v>0.6409045730605738</v>
       </c>
       <c r="T120" s="106">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>0.3590954269394262</v>
       </c>
       <c r="U120" s="106">
-        <f t="shared" si="43"/>
+        <f t="shared" si="61"/>
         <v>0.37004785104073695</v>
       </c>
       <c r="V120" s="106">
-        <f t="shared" si="35"/>
+        <f t="shared" si="50"/>
         <v>1.629952148959263</v>
       </c>
-    </row>
-    <row r="121" spans="1:22">
+      <c r="W120">
+        <f t="shared" si="62"/>
+        <v>20.814285714285717</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23">
       <c r="A121">
         <v>19</v>
       </c>
@@ -41625,23 +42109,27 @@
         <v>1.9000000000000001</v>
       </c>
       <c r="S121" s="106">
-        <f t="shared" si="42"/>
+        <f t="shared" si="60"/>
         <v>0.58179238057009341</v>
       </c>
       <c r="T121" s="106">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>0.41820761942990659</v>
       </c>
       <c r="U121" s="106">
-        <f t="shared" si="43"/>
+        <f t="shared" si="61"/>
         <v>0.336190304594294</v>
       </c>
       <c r="V121" s="106">
-        <f t="shared" si="35"/>
+        <f t="shared" si="50"/>
         <v>1.663809695405706</v>
       </c>
-    </row>
-    <row r="122" spans="1:22">
+      <c r="W121">
+        <f t="shared" si="62"/>
+        <v>20.814285714285717</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23">
       <c r="A122">
         <v>20</v>
       </c>
@@ -41697,7 +42185,7 @@
         <v>3</v>
       </c>
       <c r="T122" s="106">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="U122" s="106">
@@ -41705,11 +42193,15 @@
         <v>6</v>
       </c>
       <c r="V122" s="106">
-        <f t="shared" si="35"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:22">
+      <c r="W122" s="109">
+        <f>AVERAGE(B122:B129)</f>
+        <v>26.65</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23">
       <c r="A123">
         <v>20</v>
       </c>
@@ -41765,23 +42257,27 @@
         <v>5.85</v>
       </c>
       <c r="S123" s="106">
-        <f t="shared" ref="S123:S129" si="44">E123*J123/$J$122*P123</f>
+        <f t="shared" ref="S123:S129" si="63">E123*J123/$J$122*P123</f>
         <v>3.067366773660186</v>
       </c>
       <c r="T123" s="106">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>-6.7366773660185952E-2</v>
       </c>
       <c r="U123" s="106">
-        <f t="shared" ref="U123:U129" si="45">F123*M123/$M$122*P123</f>
+        <f t="shared" ref="U123:U129" si="64">F123*M123/$M$122*P123</f>
         <v>5.0879403042188853</v>
       </c>
       <c r="V123" s="106">
-        <f t="shared" si="35"/>
+        <f t="shared" si="50"/>
         <v>0.91205969578111468</v>
       </c>
-    </row>
-    <row r="124" spans="1:22">
+      <c r="W123">
+        <f>W122</f>
+        <v>26.65</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23">
       <c r="A124">
         <v>20</v>
       </c>
@@ -41837,23 +42333,27 @@
         <v>5.8</v>
       </c>
       <c r="S124" s="106">
-        <f t="shared" si="44"/>
+        <f t="shared" si="63"/>
         <v>2.656615193718022</v>
       </c>
       <c r="T124" s="106">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>0.34338480628197798</v>
       </c>
       <c r="U124" s="106">
-        <f t="shared" si="45"/>
+        <f t="shared" si="64"/>
         <v>3.112292028262563</v>
       </c>
       <c r="V124" s="106">
-        <f t="shared" si="35"/>
+        <f t="shared" si="50"/>
         <v>2.887707971737437</v>
       </c>
-    </row>
-    <row r="125" spans="1:22">
+      <c r="W124">
+        <f t="shared" ref="W124:W129" si="65">W123</f>
+        <v>26.65</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23">
       <c r="A125">
         <v>20</v>
       </c>
@@ -41909,23 +42409,27 @@
         <v>5.8</v>
       </c>
       <c r="S125" s="106">
-        <f t="shared" si="44"/>
+        <f t="shared" si="63"/>
         <v>2.373131782391348</v>
       </c>
       <c r="T125" s="106">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>0.62686821760865197</v>
       </c>
       <c r="U125" s="106">
-        <f t="shared" si="45"/>
+        <f t="shared" si="64"/>
         <v>2.1458809273254889</v>
       </c>
       <c r="V125" s="106">
-        <f t="shared" si="35"/>
+        <f t="shared" si="50"/>
         <v>3.8541190726745111</v>
       </c>
-    </row>
-    <row r="126" spans="1:22">
+      <c r="W125">
+        <f t="shared" si="65"/>
+        <v>26.65</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23">
       <c r="A126">
         <v>20</v>
       </c>
@@ -41981,23 +42485,27 @@
         <v>5.85</v>
       </c>
       <c r="S126" s="106">
-        <f t="shared" si="44"/>
+        <f t="shared" si="63"/>
         <v>1.8603737233853526</v>
       </c>
       <c r="T126" s="106">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>1.1396262766146474</v>
       </c>
       <c r="U126" s="106">
-        <f t="shared" si="45"/>
+        <f t="shared" si="64"/>
         <v>1.4002917367080765</v>
       </c>
       <c r="V126" s="106">
-        <f t="shared" si="35"/>
+        <f t="shared" si="50"/>
         <v>4.5997082632919231</v>
       </c>
-    </row>
-    <row r="127" spans="1:22">
+      <c r="W126">
+        <f t="shared" si="65"/>
+        <v>26.65</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23">
       <c r="A127">
         <v>20</v>
       </c>
@@ -42053,23 +42561,27 @@
         <v>5.8</v>
       </c>
       <c r="S127" s="106">
-        <f t="shared" si="44"/>
+        <f t="shared" si="63"/>
         <v>1.2879399587325773</v>
       </c>
       <c r="T127" s="106">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>1.7120600412674227</v>
       </c>
       <c r="U127" s="106">
-        <f t="shared" si="45"/>
+        <f t="shared" si="64"/>
         <v>0.78211493920633424</v>
       </c>
       <c r="V127" s="106">
-        <f t="shared" si="35"/>
+        <f t="shared" si="50"/>
         <v>5.217885060793666</v>
       </c>
-    </row>
-    <row r="128" spans="1:22">
+      <c r="W127">
+        <f t="shared" si="65"/>
+        <v>26.65</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23">
       <c r="A128">
         <v>20</v>
       </c>
@@ -42125,23 +42637,27 @@
         <v>5.8999999999999995</v>
       </c>
       <c r="S128" s="106">
-        <f t="shared" si="44"/>
+        <f t="shared" si="63"/>
         <v>0.71993761252911437</v>
       </c>
       <c r="T128" s="106">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>2.2800623874708856</v>
       </c>
       <c r="U128" s="106">
-        <f t="shared" si="45"/>
+        <f t="shared" si="64"/>
         <v>0.41130692145795467</v>
       </c>
       <c r="V128" s="106">
-        <f t="shared" si="35"/>
+        <f t="shared" si="50"/>
         <v>5.588693078542045</v>
       </c>
-    </row>
-    <row r="129" spans="1:22">
+      <c r="W128">
+        <f t="shared" si="65"/>
+        <v>26.65</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23">
       <c r="A129">
         <v>20</v>
       </c>
@@ -42197,23 +42713,27 @@
         <v>6</v>
       </c>
       <c r="S129" s="106">
-        <f t="shared" si="44"/>
+        <f t="shared" si="63"/>
         <v>0.22978161594024671</v>
       </c>
       <c r="T129" s="106">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>2.7702183840597532</v>
       </c>
       <c r="U129" s="106">
-        <f t="shared" si="45"/>
+        <f t="shared" si="64"/>
         <v>0.11432873679463179</v>
       </c>
       <c r="V129" s="106">
-        <f t="shared" si="35"/>
+        <f t="shared" si="50"/>
         <v>5.885671263205368</v>
       </c>
-    </row>
-    <row r="130" spans="1:22">
+      <c r="W129">
+        <f t="shared" si="65"/>
+        <v>26.65</v>
+      </c>
+    </row>
+    <row r="130" spans="1:23">
       <c r="A130">
         <v>21</v>
       </c>
@@ -42269,7 +42789,7 @@
         <v>2.9999999999999996</v>
       </c>
       <c r="T130" s="106">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="U130" s="106">
@@ -42277,11 +42797,15 @@
         <v>6</v>
       </c>
       <c r="V130" s="106">
-        <f t="shared" si="35"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:22">
+      <c r="W130" s="109">
+        <f>AVERAGE(B130:B134)</f>
+        <v>22.32</v>
+      </c>
+    </row>
+    <row r="131" spans="1:23">
       <c r="A131">
         <v>21</v>
       </c>
@@ -42337,23 +42861,27 @@
         <v>1.85</v>
       </c>
       <c r="S131" s="106">
-        <f t="shared" ref="S131:S134" si="46">E131*J131/$J$130*P131</f>
+        <f t="shared" ref="S131:S134" si="66">E131*J131/$J$130*P131</f>
         <v>3.002716994239806</v>
       </c>
       <c r="T131" s="106">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>-2.716994239805981E-3</v>
       </c>
       <c r="U131" s="106">
-        <f t="shared" ref="U131:U134" si="47">F131*M131/$M$130*P131</f>
+        <f t="shared" ref="U131:U134" si="67">F131*M131/$M$130*P131</f>
         <v>5.3586413585964934</v>
       </c>
       <c r="V131" s="106">
-        <f t="shared" si="35"/>
+        <f t="shared" si="50"/>
         <v>0.64135864140350662</v>
       </c>
-    </row>
-    <row r="132" spans="1:22">
+      <c r="W131">
+        <f>W130</f>
+        <v>22.32</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23">
       <c r="A132">
         <v>21</v>
       </c>
@@ -42409,23 +42937,27 @@
         <v>1.75</v>
       </c>
       <c r="S132" s="106">
-        <f t="shared" si="46"/>
+        <f t="shared" si="66"/>
         <v>2.9514908524162329</v>
       </c>
       <c r="T132" s="106">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>4.850914758376712E-2</v>
       </c>
       <c r="U132" s="106">
-        <f t="shared" si="47"/>
+        <f t="shared" si="67"/>
         <v>4.4732278568421062</v>
       </c>
       <c r="V132" s="106">
-        <f t="shared" si="35"/>
+        <f t="shared" si="50"/>
         <v>1.5267721431578938</v>
       </c>
-    </row>
-    <row r="133" spans="1:22">
+      <c r="W132">
+        <f t="shared" ref="W132:W134" si="68">W131</f>
+        <v>22.32</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23">
       <c r="A133">
         <v>21</v>
       </c>
@@ -42481,23 +43013,27 @@
         <v>1.57</v>
       </c>
       <c r="S133" s="106">
-        <f t="shared" si="46"/>
+        <f t="shared" si="66"/>
         <v>2.6941018334231321</v>
       </c>
       <c r="T133" s="106">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>0.30589816657686786</v>
       </c>
       <c r="U133" s="106">
-        <f t="shared" si="47"/>
+        <f t="shared" si="67"/>
         <v>2.7955654736842108</v>
       </c>
       <c r="V133" s="106">
-        <f t="shared" si="35"/>
+        <f t="shared" si="50"/>
         <v>3.2044345263157892</v>
       </c>
-    </row>
-    <row r="134" spans="1:22">
+      <c r="W133">
+        <f t="shared" si="68"/>
+        <v>22.32</v>
+      </c>
+    </row>
+    <row r="134" spans="1:23">
       <c r="A134">
         <v>21</v>
       </c>
@@ -42553,23 +43089,27 @@
         <v>1.57</v>
       </c>
       <c r="S134" s="106">
-        <f t="shared" si="46"/>
+        <f t="shared" si="66"/>
         <v>2.6079327074693595</v>
       </c>
       <c r="T134" s="106">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>0.39206729253064054</v>
       </c>
       <c r="U134" s="106">
-        <f t="shared" si="47"/>
+        <f t="shared" si="67"/>
         <v>2.6456486400000001</v>
       </c>
       <c r="V134" s="106">
-        <f t="shared" si="35"/>
+        <f t="shared" si="50"/>
         <v>3.3543513599999999</v>
       </c>
-    </row>
-    <row r="135" spans="1:22">
+      <c r="W134">
+        <f t="shared" si="68"/>
+        <v>22.32</v>
+      </c>
+    </row>
+    <row r="135" spans="1:23">
       <c r="A135">
         <v>22</v>
       </c>
@@ -42625,7 +43165,7 @@
         <v>3</v>
       </c>
       <c r="T135" s="106">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="U135" s="106">
@@ -42633,11 +43173,15 @@
         <v>6.0000000000000009</v>
       </c>
       <c r="V135" s="106">
-        <f t="shared" si="35"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:22">
+      <c r="W135" s="109">
+        <f>AVERAGE(B135:B140)</f>
+        <v>22.733333333333331</v>
+      </c>
+    </row>
+    <row r="136" spans="1:23">
       <c r="A136">
         <v>22</v>
       </c>
@@ -42693,23 +43237,27 @@
         <v>1.92</v>
       </c>
       <c r="S136" s="106">
-        <f t="shared" ref="S136:S140" si="48">E136*J136/$J$135*P136</f>
+        <f t="shared" ref="S136:S140" si="69">E136*J136/$J$135*P136</f>
         <v>2.9399579526206683</v>
       </c>
       <c r="T136" s="106">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>6.004204737933172E-2</v>
       </c>
       <c r="U136" s="106">
-        <f t="shared" ref="U136:U140" si="49">F136*M136/$M$135*P136</f>
+        <f t="shared" ref="U136:U140" si="70">F136*M136/$M$135*P136</f>
         <v>5.3236292990184158</v>
       </c>
       <c r="V136" s="106">
-        <f t="shared" si="35"/>
+        <f t="shared" si="50"/>
         <v>0.67637070098158425</v>
       </c>
-    </row>
-    <row r="137" spans="1:22">
+      <c r="W136">
+        <f>W135</f>
+        <v>22.733333333333331</v>
+      </c>
+    </row>
+    <row r="137" spans="1:23">
       <c r="A137">
         <v>22</v>
       </c>
@@ -42765,23 +43313,27 @@
         <v>1.8499999999999999</v>
       </c>
       <c r="S137" s="106">
-        <f t="shared" si="48"/>
+        <f t="shared" si="69"/>
         <v>2.5784092052940282</v>
       </c>
       <c r="T137" s="106">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>0.42159079470597183</v>
       </c>
       <c r="U137" s="106">
-        <f t="shared" si="49"/>
+        <f t="shared" si="70"/>
         <v>3.9827864380533291</v>
       </c>
       <c r="V137" s="106">
-        <f t="shared" si="35"/>
+        <f t="shared" si="50"/>
         <v>2.0172135619466709</v>
       </c>
-    </row>
-    <row r="138" spans="1:22">
+      <c r="W137">
+        <f t="shared" ref="W137:W140" si="71">W136</f>
+        <v>22.733333333333331</v>
+      </c>
+    </row>
+    <row r="138" spans="1:23">
       <c r="A138">
         <v>22</v>
       </c>
@@ -42837,23 +43389,27 @@
         <v>1.8499999999999999</v>
       </c>
       <c r="S138" s="106">
-        <f t="shared" si="48"/>
+        <f t="shared" si="69"/>
         <v>2.4937817852304693</v>
       </c>
       <c r="T138" s="106">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>0.50621821476953066</v>
       </c>
       <c r="U138" s="106">
-        <f t="shared" si="49"/>
+        <f t="shared" si="70"/>
         <v>3.5256155654772141</v>
       </c>
       <c r="V138" s="106">
-        <f t="shared" si="35"/>
+        <f t="shared" si="50"/>
         <v>2.4743844345227859</v>
       </c>
-    </row>
-    <row r="139" spans="1:22">
+      <c r="W138">
+        <f t="shared" si="71"/>
+        <v>22.733333333333331</v>
+      </c>
+    </row>
+    <row r="139" spans="1:23">
       <c r="A139">
         <v>22</v>
       </c>
@@ -42909,23 +43465,27 @@
         <v>1.8499999999999999</v>
       </c>
       <c r="S139" s="106">
-        <f t="shared" si="48"/>
+        <f t="shared" si="69"/>
         <v>2.2491860753700763</v>
       </c>
       <c r="T139" s="106">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>0.75081392462992369</v>
       </c>
       <c r="U139" s="106">
-        <f t="shared" si="49"/>
+        <f t="shared" si="70"/>
         <v>3.2185023145829939</v>
       </c>
       <c r="V139" s="106">
-        <f t="shared" si="35"/>
+        <f t="shared" si="50"/>
         <v>2.7814976854170061</v>
       </c>
-    </row>
-    <row r="140" spans="1:22">
+      <c r="W139">
+        <f t="shared" si="71"/>
+        <v>22.733333333333331</v>
+      </c>
+    </row>
+    <row r="140" spans="1:23">
       <c r="A140">
         <v>22</v>
       </c>
@@ -42981,23 +43541,27 @@
         <v>1.8499999999999999</v>
       </c>
       <c r="S140" s="106">
-        <f t="shared" si="48"/>
+        <f t="shared" si="69"/>
         <v>2.2200773165933412</v>
       </c>
       <c r="T140" s="106">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>0.77992268340665882</v>
       </c>
       <c r="U140" s="106">
-        <f t="shared" si="49"/>
+        <f t="shared" si="70"/>
         <v>2.0598787179437359</v>
       </c>
       <c r="V140" s="106">
-        <f t="shared" si="35"/>
+        <f t="shared" si="50"/>
         <v>3.9401212820562641</v>
       </c>
-    </row>
-    <row r="141" spans="1:22">
+      <c r="W140">
+        <f t="shared" si="71"/>
+        <v>22.733333333333331</v>
+      </c>
+    </row>
+    <row r="141" spans="1:23">
       <c r="A141">
         <v>23</v>
       </c>
@@ -43053,7 +43617,7 @@
         <v>3</v>
       </c>
       <c r="T141" s="106">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="U141" s="106">
@@ -43061,11 +43625,15 @@
         <v>6</v>
       </c>
       <c r="V141" s="106">
-        <f t="shared" si="35"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:22">
+      <c r="W141" s="109">
+        <f>AVERAGE(B141:B147)</f>
+        <v>23.657142857142855</v>
+      </c>
+    </row>
+    <row r="142" spans="1:23">
       <c r="A142">
         <v>23</v>
       </c>
@@ -43121,23 +43689,27 @@
         <v>2.9</v>
       </c>
       <c r="S142" s="106">
-        <f t="shared" ref="S142:S147" si="50">E142*J142/$J$141*P142</f>
+        <f t="shared" ref="S142:S147" si="72">E142*J142/$J$141*P142</f>
         <v>3.0574421930362035</v>
       </c>
       <c r="T142" s="106">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>-5.7442193036203459E-2</v>
       </c>
       <c r="U142" s="106">
-        <f t="shared" ref="U142:U147" si="51">F142*M142/$M$141*P142</f>
+        <f t="shared" ref="U142:U147" si="73">F142*M142/$M$141*P142</f>
         <v>5.4054136516225295</v>
       </c>
       <c r="V142" s="106">
-        <f t="shared" si="35"/>
+        <f t="shared" si="50"/>
         <v>0.59458634837747049</v>
       </c>
-    </row>
-    <row r="143" spans="1:22">
+      <c r="W142">
+        <f>W141</f>
+        <v>23.657142857142855</v>
+      </c>
+    </row>
+    <row r="143" spans="1:23">
       <c r="A143">
         <v>23</v>
       </c>
@@ -43193,23 +43765,27 @@
         <v>2.9</v>
       </c>
       <c r="S143" s="106">
+        <f t="shared" si="72"/>
+        <v>3.0810704326933407</v>
+      </c>
+      <c r="T143" s="106">
+        <f t="shared" si="49"/>
+        <v>-8.1070432693340688E-2</v>
+      </c>
+      <c r="U143" s="106">
+        <f t="shared" si="73"/>
+        <v>4.571222406835985</v>
+      </c>
+      <c r="V143" s="106">
         <f t="shared" si="50"/>
-        <v>3.0810704326933407</v>
-      </c>
-      <c r="T143" s="106">
-        <f t="shared" si="34"/>
-        <v>-8.1070432693340688E-2</v>
-      </c>
-      <c r="U143" s="106">
-        <f t="shared" si="51"/>
-        <v>4.571222406835985</v>
-      </c>
-      <c r="V143" s="106">
-        <f t="shared" si="35"/>
         <v>1.428777593164015</v>
       </c>
-    </row>
-    <row r="144" spans="1:22">
+      <c r="W143">
+        <f t="shared" ref="W143:W147" si="74">W142</f>
+        <v>23.657142857142855</v>
+      </c>
+    </row>
+    <row r="144" spans="1:23">
       <c r="A144">
         <v>23</v>
       </c>
@@ -43265,23 +43841,27 @@
         <v>2.8000000000000003</v>
       </c>
       <c r="S144" s="106">
+        <f t="shared" si="72"/>
+        <v>2.8344657323506599</v>
+      </c>
+      <c r="T144" s="106">
+        <f t="shared" si="49"/>
+        <v>0.16553426764934009</v>
+      </c>
+      <c r="U144" s="106">
+        <f t="shared" si="73"/>
+        <v>3.949586111016921</v>
+      </c>
+      <c r="V144" s="106">
         <f t="shared" si="50"/>
-        <v>2.8344657323506599</v>
-      </c>
-      <c r="T144" s="106">
-        <f t="shared" si="34"/>
-        <v>0.16553426764934009</v>
-      </c>
-      <c r="U144" s="106">
-        <f t="shared" si="51"/>
-        <v>3.949586111016921</v>
-      </c>
-      <c r="V144" s="106">
-        <f t="shared" si="35"/>
         <v>2.050413888983079</v>
       </c>
-    </row>
-    <row r="145" spans="1:22">
+      <c r="W144">
+        <f t="shared" si="74"/>
+        <v>23.657142857142855</v>
+      </c>
+    </row>
+    <row r="145" spans="1:23">
       <c r="A145">
         <v>23</v>
       </c>
@@ -43337,23 +43917,27 @@
         <v>2.8000000000000003</v>
       </c>
       <c r="S145" s="106">
+        <f t="shared" si="72"/>
+        <v>2.5876581632905267</v>
+      </c>
+      <c r="T145" s="106">
+        <f t="shared" si="49"/>
+        <v>0.41234183670947333</v>
+      </c>
+      <c r="U145" s="106">
+        <f t="shared" si="73"/>
+        <v>3.1929488996643056</v>
+      </c>
+      <c r="V145" s="106">
         <f t="shared" si="50"/>
-        <v>2.5876581632905267</v>
-      </c>
-      <c r="T145" s="106">
-        <f t="shared" si="34"/>
-        <v>0.41234183670947333</v>
-      </c>
-      <c r="U145" s="106">
-        <f t="shared" si="51"/>
-        <v>3.1929488996643056</v>
-      </c>
-      <c r="V145" s="106">
-        <f t="shared" si="35"/>
         <v>2.8070511003356944</v>
       </c>
-    </row>
-    <row r="146" spans="1:22">
+      <c r="W145">
+        <f t="shared" si="74"/>
+        <v>23.657142857142855</v>
+      </c>
+    </row>
+    <row r="146" spans="1:23">
       <c r="A146">
         <v>23</v>
       </c>
@@ -43409,23 +43993,27 @@
         <v>2.8000000000000003</v>
       </c>
       <c r="S146" s="106">
+        <f t="shared" si="72"/>
+        <v>2.3507289329347079</v>
+      </c>
+      <c r="T146" s="106">
+        <f t="shared" si="49"/>
+        <v>0.64927106706529214</v>
+      </c>
+      <c r="U146" s="106">
+        <f t="shared" si="73"/>
+        <v>2.6083349496456552</v>
+      </c>
+      <c r="V146" s="106">
         <f t="shared" si="50"/>
-        <v>2.3507289329347079</v>
-      </c>
-      <c r="T146" s="106">
-        <f t="shared" si="34"/>
-        <v>0.64927106706529214</v>
-      </c>
-      <c r="U146" s="106">
-        <f t="shared" si="51"/>
-        <v>2.6083349496456552</v>
-      </c>
-      <c r="V146" s="106">
-        <f t="shared" si="35"/>
         <v>3.3916650503543448</v>
       </c>
-    </row>
-    <row r="147" spans="1:22">
+      <c r="W146">
+        <f t="shared" si="74"/>
+        <v>23.657142857142855</v>
+      </c>
+    </row>
+    <row r="147" spans="1:23">
       <c r="A147">
         <v>23</v>
       </c>
@@ -43481,23 +44069,27 @@
         <v>2.77</v>
       </c>
       <c r="S147" s="106">
+        <f t="shared" si="72"/>
+        <v>1.7921096201085907</v>
+      </c>
+      <c r="T147" s="106">
+        <f t="shared" si="49"/>
+        <v>1.2078903798914093</v>
+      </c>
+      <c r="U147" s="106">
+        <f t="shared" si="73"/>
+        <v>1.2358127184564787</v>
+      </c>
+      <c r="V147" s="106">
         <f t="shared" si="50"/>
-        <v>1.7921096201085907</v>
-      </c>
-      <c r="T147" s="106">
-        <f t="shared" si="34"/>
-        <v>1.2078903798914093</v>
-      </c>
-      <c r="U147" s="106">
-        <f t="shared" si="51"/>
-        <v>1.2358127184564787</v>
-      </c>
-      <c r="V147" s="106">
-        <f t="shared" si="35"/>
         <v>4.7641872815435216</v>
       </c>
-    </row>
-    <row r="148" spans="1:22">
+      <c r="W147">
+        <f t="shared" si="74"/>
+        <v>23.657142857142855</v>
+      </c>
+    </row>
+    <row r="148" spans="1:23">
       <c r="A148">
         <v>24</v>
       </c>
@@ -43553,7 +44145,7 @@
         <v>1</v>
       </c>
       <c r="T148" s="106">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="U148" s="106">
@@ -43561,11 +44153,15 @@
         <v>2</v>
       </c>
       <c r="V148" s="106">
-        <f t="shared" si="35"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:22">
+      <c r="W148" s="109">
+        <f>AVERAGE(B148:B154)</f>
+        <v>18.25714285714286</v>
+      </c>
+    </row>
+    <row r="149" spans="1:23">
       <c r="A149">
         <v>24</v>
       </c>
@@ -43621,23 +44217,27 @@
         <v>1.95</v>
       </c>
       <c r="S149" s="106">
-        <f t="shared" ref="S149:S154" si="52">E149*J149/$J$148*P149</f>
+        <f t="shared" ref="S149:S154" si="75">E149*J149/$J$148*P149</f>
         <v>0.99318730039166248</v>
       </c>
       <c r="T149" s="106">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>6.8126996083375246E-3</v>
       </c>
       <c r="U149" s="106">
-        <f t="shared" ref="U149:U154" si="53">F149*M149/$M$148*P149</f>
+        <f t="shared" ref="U149:U154" si="76">F149*M149/$M$148*P149</f>
         <v>1.8801347157229196</v>
       </c>
       <c r="V149" s="106">
-        <f t="shared" si="35"/>
+        <f t="shared" si="50"/>
         <v>0.11986528427708043</v>
       </c>
-    </row>
-    <row r="150" spans="1:22">
+      <c r="W149">
+        <f>W148</f>
+        <v>18.25714285714286</v>
+      </c>
+    </row>
+    <row r="150" spans="1:23">
       <c r="A150">
         <v>24</v>
       </c>
@@ -43693,23 +44293,27 @@
         <v>1.9</v>
       </c>
       <c r="S150" s="106">
-        <f t="shared" si="52"/>
+        <f t="shared" si="75"/>
         <v>0.95926434170174157</v>
       </c>
       <c r="T150" s="106">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>4.0735658298258426E-2</v>
       </c>
       <c r="U150" s="106">
-        <f t="shared" si="53"/>
+        <f t="shared" si="76"/>
         <v>1.4797190571821159</v>
       </c>
       <c r="V150" s="106">
-        <f t="shared" si="35"/>
+        <f t="shared" si="50"/>
         <v>0.52028094281788406</v>
       </c>
-    </row>
-    <row r="151" spans="1:22">
+      <c r="W150">
+        <f t="shared" ref="W150:W154" si="77">W149</f>
+        <v>18.25714285714286</v>
+      </c>
+    </row>
+    <row r="151" spans="1:23">
       <c r="A151">
         <v>24</v>
       </c>
@@ -43765,23 +44369,27 @@
         <v>1.9</v>
       </c>
       <c r="S151" s="106">
-        <f t="shared" si="52"/>
+        <f t="shared" si="75"/>
         <v>0.91905274447058738</v>
       </c>
       <c r="T151" s="106">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>8.0947255529412621E-2</v>
       </c>
       <c r="U151" s="106">
-        <f t="shared" si="53"/>
+        <f t="shared" si="76"/>
         <v>1.2080699714617908</v>
       </c>
       <c r="V151" s="106">
-        <f t="shared" si="35"/>
+        <f t="shared" si="50"/>
         <v>0.79193002853820915</v>
       </c>
-    </row>
-    <row r="152" spans="1:22">
+      <c r="W151">
+        <f t="shared" si="77"/>
+        <v>18.25714285714286</v>
+      </c>
+    </row>
+    <row r="152" spans="1:23">
       <c r="A152">
         <v>24</v>
       </c>
@@ -43837,23 +44445,27 @@
         <v>1.9</v>
       </c>
       <c r="S152" s="106">
-        <f t="shared" si="52"/>
+        <f t="shared" si="75"/>
         <v>0.87613470900975232</v>
       </c>
       <c r="T152" s="106">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>0.12386529099024768</v>
       </c>
       <c r="U152" s="106">
-        <f t="shared" si="53"/>
+        <f t="shared" si="76"/>
         <v>0.96225325018496988</v>
       </c>
       <c r="V152" s="106">
-        <f t="shared" si="35"/>
+        <f t="shared" si="50"/>
         <v>1.0377467498150301</v>
       </c>
-    </row>
-    <row r="153" spans="1:22">
+      <c r="W152">
+        <f t="shared" si="77"/>
+        <v>18.25714285714286</v>
+      </c>
+    </row>
+    <row r="153" spans="1:23">
       <c r="A153">
         <v>24</v>
       </c>
@@ -43909,23 +44521,27 @@
         <v>1.93</v>
       </c>
       <c r="S153" s="106">
-        <f t="shared" si="52"/>
+        <f t="shared" si="75"/>
         <v>0.808205057486449</v>
       </c>
       <c r="T153" s="106">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>0.191794942513551</v>
       </c>
       <c r="U153" s="106">
-        <f t="shared" si="53"/>
+        <f t="shared" si="76"/>
         <v>0.72092960574992049</v>
       </c>
       <c r="V153" s="106">
-        <f t="shared" si="35"/>
+        <f t="shared" si="50"/>
         <v>1.2790703942500796</v>
       </c>
-    </row>
-    <row r="154" spans="1:22">
+      <c r="W153">
+        <f t="shared" si="77"/>
+        <v>18.25714285714286</v>
+      </c>
+    </row>
+    <row r="154" spans="1:23">
       <c r="A154">
         <v>24</v>
       </c>
@@ -43981,23 +44597,27 @@
         <v>1.94</v>
       </c>
       <c r="S154" s="106">
-        <f t="shared" si="52"/>
+        <f t="shared" si="75"/>
         <v>0.71245985957161606</v>
       </c>
       <c r="T154" s="106">
-        <f t="shared" ref="T154:T199" si="54">E154-S154</f>
+        <f t="shared" ref="T154:T199" si="78">E154-S154</f>
         <v>0.28754014042838394</v>
       </c>
       <c r="U154" s="106">
-        <f t="shared" si="53"/>
+        <f t="shared" si="76"/>
         <v>0.51552776469909956</v>
       </c>
       <c r="V154" s="106">
-        <f t="shared" ref="V154:V199" si="55">F154-U154</f>
+        <f t="shared" ref="V154:V199" si="79">F154-U154</f>
         <v>1.4844722353009003</v>
       </c>
-    </row>
-    <row r="155" spans="1:22">
+      <c r="W154">
+        <f t="shared" si="77"/>
+        <v>18.25714285714286</v>
+      </c>
+    </row>
+    <row r="155" spans="1:23">
       <c r="A155">
         <v>25</v>
       </c>
@@ -44053,7 +44673,7 @@
         <v>1</v>
       </c>
       <c r="T155" s="106">
-        <f t="shared" si="54"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="U155" s="106">
@@ -44061,11 +44681,15 @@
         <v>2</v>
       </c>
       <c r="V155" s="106">
-        <f t="shared" si="55"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:22">
+      <c r="W155" s="109">
+        <f>AVERAGE(B155:B160)</f>
+        <v>18.916666666666668</v>
+      </c>
+    </row>
+    <row r="156" spans="1:23">
       <c r="A156">
         <v>25</v>
       </c>
@@ -44121,23 +44745,27 @@
         <v>1.95</v>
       </c>
       <c r="S156" s="106">
-        <f t="shared" ref="S156:S160" si="56">E156*J156/$J$155*P156</f>
+        <f t="shared" ref="S156:S160" si="80">E156*J156/$J$155*P156</f>
         <v>1.0141608570714369</v>
       </c>
       <c r="T156" s="106">
-        <f t="shared" si="54"/>
+        <f t="shared" si="78"/>
         <v>-1.4160857071436883E-2</v>
       </c>
       <c r="U156" s="106">
-        <f t="shared" ref="U156:U160" si="57">F156*M156/$M$155*P156</f>
+        <f t="shared" ref="U156:U160" si="81">F156*M156/$M$155*P156</f>
         <v>1.5541908889123772</v>
       </c>
       <c r="V156" s="106">
-        <f t="shared" si="55"/>
+        <f t="shared" si="79"/>
         <v>0.44580911108762278</v>
       </c>
-    </row>
-    <row r="157" spans="1:22">
+      <c r="W156">
+        <f>W155</f>
+        <v>18.916666666666668</v>
+      </c>
+    </row>
+    <row r="157" spans="1:23">
       <c r="A157">
         <v>25</v>
       </c>
@@ -44193,23 +44821,27 @@
         <v>1.95</v>
       </c>
       <c r="S157" s="106">
-        <f t="shared" si="56"/>
+        <f t="shared" si="80"/>
         <v>0.9091297999222232</v>
       </c>
       <c r="T157" s="106">
-        <f t="shared" si="54"/>
+        <f t="shared" si="78"/>
         <v>9.0870200077776797E-2</v>
       </c>
       <c r="U157" s="106">
-        <f t="shared" si="57"/>
+        <f t="shared" si="81"/>
         <v>1.0770240989324593</v>
       </c>
       <c r="V157" s="106">
-        <f t="shared" si="55"/>
+        <f t="shared" si="79"/>
         <v>0.92297590106754068</v>
       </c>
-    </row>
-    <row r="158" spans="1:22">
+      <c r="W157">
+        <f t="shared" ref="W157:W160" si="82">W156</f>
+        <v>18.916666666666668</v>
+      </c>
+    </row>
+    <row r="158" spans="1:23">
       <c r="A158">
         <v>25</v>
       </c>
@@ -44265,23 +44897,27 @@
         <v>2</v>
       </c>
       <c r="S158" s="106">
-        <f t="shared" si="56"/>
+        <f t="shared" si="80"/>
         <v>0.77032028412245024</v>
       </c>
       <c r="T158" s="106">
-        <f t="shared" si="54"/>
+        <f t="shared" si="78"/>
         <v>0.22967971587754976</v>
       </c>
       <c r="U158" s="106">
-        <f t="shared" si="57"/>
+        <f t="shared" si="81"/>
         <v>0.64319551075707926</v>
       </c>
       <c r="V158" s="106">
-        <f t="shared" si="55"/>
+        <f t="shared" si="79"/>
         <v>1.3568044892429207</v>
       </c>
-    </row>
-    <row r="159" spans="1:22">
+      <c r="W158">
+        <f t="shared" si="82"/>
+        <v>18.916666666666668</v>
+      </c>
+    </row>
+    <row r="159" spans="1:23">
       <c r="A159">
         <v>25</v>
       </c>
@@ -44337,23 +44973,27 @@
         <v>2</v>
       </c>
       <c r="S159" s="106">
-        <f t="shared" si="56"/>
+        <f t="shared" si="80"/>
         <v>0.58312663532448661</v>
       </c>
       <c r="T159" s="106">
-        <f t="shared" si="54"/>
+        <f t="shared" si="78"/>
         <v>0.41687336467551339</v>
       </c>
       <c r="U159" s="106">
-        <f t="shared" si="57"/>
+        <f t="shared" si="81"/>
         <v>0.34429810417887785</v>
       </c>
       <c r="V159" s="106">
-        <f t="shared" si="55"/>
+        <f t="shared" si="79"/>
         <v>1.6557018958211223</v>
       </c>
-    </row>
-    <row r="160" spans="1:22">
+      <c r="W159">
+        <f t="shared" si="82"/>
+        <v>18.916666666666668</v>
+      </c>
+    </row>
+    <row r="160" spans="1:23">
       <c r="A160">
         <v>25</v>
       </c>
@@ -44409,23 +45049,27 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="S160" s="106">
-        <f t="shared" si="56"/>
+        <f t="shared" si="80"/>
         <v>0.40336883315086092</v>
       </c>
       <c r="T160" s="106">
-        <f t="shared" si="54"/>
+        <f t="shared" si="78"/>
         <v>0.59663116684913908</v>
       </c>
       <c r="U160" s="106">
-        <f t="shared" si="57"/>
+        <f t="shared" si="81"/>
         <v>0.1765680737189034</v>
       </c>
       <c r="V160" s="106">
-        <f t="shared" si="55"/>
+        <f t="shared" si="79"/>
         <v>1.8234319262810965</v>
       </c>
-    </row>
-    <row r="161" spans="1:22">
+      <c r="W160">
+        <f t="shared" si="82"/>
+        <v>18.916666666666668</v>
+      </c>
+    </row>
+    <row r="161" spans="1:23">
       <c r="A161">
         <v>26</v>
       </c>
@@ -44481,7 +45125,7 @@
         <v>0.5</v>
       </c>
       <c r="T161" s="106">
-        <f t="shared" si="54"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="U161" s="106">
@@ -44489,11 +45133,15 @@
         <v>1</v>
       </c>
       <c r="V161" s="106">
-        <f t="shared" si="55"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:22">
+      <c r="W161" s="109">
+        <f>AVERAGE(B161:B166)</f>
+        <v>19.400000000000002</v>
+      </c>
+    </row>
+    <row r="162" spans="1:23">
       <c r="A162">
         <v>26</v>
       </c>
@@ -44549,23 +45197,27 @@
         <v>2</v>
       </c>
       <c r="S162" s="106">
-        <f t="shared" ref="S162:S166" si="58">E162*J162/$J$161*P162</f>
+        <f t="shared" ref="S162:S166" si="83">E162*J162/$J$161*P162</f>
         <v>0.44810087768367757</v>
       </c>
       <c r="T162" s="106">
-        <f t="shared" si="54"/>
+        <f t="shared" si="78"/>
         <v>5.1899122316322432E-2</v>
       </c>
       <c r="U162" s="106">
-        <f t="shared" ref="U162:U166" si="59">F162*M162/$M$161*P162</f>
+        <f t="shared" ref="U162:U166" si="84">F162*M162/$M$161*P162</f>
         <v>0.60408593950009559</v>
       </c>
       <c r="V162" s="106">
-        <f t="shared" si="55"/>
+        <f t="shared" si="79"/>
         <v>0.39591406049990441</v>
       </c>
-    </row>
-    <row r="163" spans="1:22">
+      <c r="W162">
+        <f>W161</f>
+        <v>19.400000000000002</v>
+      </c>
+    </row>
+    <row r="163" spans="1:23">
       <c r="A163">
         <v>26</v>
       </c>
@@ -44621,23 +45273,27 @@
         <v>2</v>
       </c>
       <c r="S163" s="106">
-        <f t="shared" si="58"/>
+        <f t="shared" si="83"/>
         <v>0.38308935637122271</v>
       </c>
       <c r="T163" s="106">
-        <f t="shared" si="54"/>
+        <f t="shared" si="78"/>
         <v>0.11691064362877729</v>
       </c>
       <c r="U163" s="106">
-        <f t="shared" si="59"/>
+        <f t="shared" si="84"/>
         <v>0.31123167432209137</v>
       </c>
       <c r="V163" s="106">
-        <f t="shared" si="55"/>
+        <f t="shared" si="79"/>
         <v>0.68876832567790869</v>
       </c>
-    </row>
-    <row r="164" spans="1:22">
+      <c r="W163">
+        <f t="shared" ref="W163:W166" si="85">W162</f>
+        <v>19.400000000000002</v>
+      </c>
+    </row>
+    <row r="164" spans="1:23">
       <c r="A164">
         <v>26</v>
       </c>
@@ -44693,23 +45349,27 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="S164" s="106">
-        <f t="shared" si="58"/>
+        <f t="shared" si="83"/>
         <v>0.21517967150348685</v>
       </c>
       <c r="T164" s="106">
-        <f t="shared" si="54"/>
+        <f t="shared" si="78"/>
         <v>0.28482032849651318</v>
       </c>
       <c r="U164" s="106">
-        <f t="shared" si="59"/>
+        <f t="shared" si="84"/>
         <v>0.11376431987443227</v>
       </c>
       <c r="V164" s="106">
-        <f t="shared" si="55"/>
+        <f t="shared" si="79"/>
         <v>0.88623568012556775</v>
       </c>
-    </row>
-    <row r="165" spans="1:22">
+      <c r="W164">
+        <f t="shared" si="85"/>
+        <v>19.400000000000002</v>
+      </c>
+    </row>
+    <row r="165" spans="1:23">
       <c r="A165">
         <v>26</v>
       </c>
@@ -44765,23 +45425,27 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="S165" s="106">
-        <f t="shared" si="58"/>
+        <f t="shared" si="83"/>
         <v>5.5606288103056054E-2</v>
       </c>
       <c r="T165" s="106">
-        <f t="shared" si="54"/>
+        <f t="shared" si="78"/>
         <v>0.44439371189694393</v>
       </c>
       <c r="U165" s="106">
-        <f t="shared" si="59"/>
+        <f t="shared" si="84"/>
         <v>3.2475989323710631E-2</v>
       </c>
       <c r="V165" s="106">
-        <f t="shared" si="55"/>
+        <f t="shared" si="79"/>
         <v>0.96752401067628935</v>
       </c>
-    </row>
-    <row r="166" spans="1:22">
+      <c r="W165">
+        <f t="shared" si="85"/>
+        <v>19.400000000000002</v>
+      </c>
+    </row>
+    <row r="166" spans="1:23">
       <c r="A166">
         <v>26</v>
       </c>
@@ -44837,23 +45501,27 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="S166" s="106">
-        <f t="shared" si="58"/>
+        <f t="shared" si="83"/>
         <v>-4.7735447461611574E-3</v>
       </c>
       <c r="T166" s="106">
-        <f t="shared" si="54"/>
+        <f t="shared" si="78"/>
         <v>0.50477354474616121</v>
       </c>
       <c r="U166" s="106">
-        <f t="shared" si="59"/>
+        <f t="shared" si="84"/>
         <v>3.030955886835004E-3</v>
       </c>
       <c r="V166" s="106">
-        <f t="shared" si="55"/>
+        <f t="shared" si="79"/>
         <v>0.996969044113165</v>
       </c>
-    </row>
-    <row r="167" spans="1:22" ht="17.25">
+      <c r="W166">
+        <f t="shared" si="85"/>
+        <v>19.400000000000002</v>
+      </c>
+    </row>
+    <row r="167" spans="1:23" ht="17.5">
       <c r="A167">
         <v>27</v>
       </c>
@@ -44909,7 +45577,7 @@
         <v>3.0000000000000004</v>
       </c>
       <c r="T167" s="106">
-        <f t="shared" si="54"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="U167" s="106">
@@ -44917,11 +45585,15 @@
         <v>6.0000000000000009</v>
       </c>
       <c r="V167" s="106">
-        <f t="shared" si="55"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:22">
+      <c r="W167" s="109">
+        <f>AVERAGE(B167:B172)</f>
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:23">
       <c r="A168">
         <v>27</v>
       </c>
@@ -44977,23 +45649,27 @@
         <v>2.9049999999999998</v>
       </c>
       <c r="S168" s="106">
-        <f t="shared" ref="S168:S172" si="60">E168*J168/$J$167*P168</f>
+        <f t="shared" ref="S168:S172" si="86">E168*J168/$J$167*P168</f>
         <v>2.9343308921047595</v>
       </c>
       <c r="T168" s="106">
-        <f t="shared" si="54"/>
+        <f t="shared" si="78"/>
         <v>6.5669107895240497E-2</v>
       </c>
       <c r="U168" s="106">
-        <f t="shared" ref="U168:U172" si="61">F168*M168/$M$167*P168</f>
+        <f t="shared" ref="U168:U172" si="87">F168*M168/$M$167*P168</f>
         <v>4.8196823248768714</v>
       </c>
       <c r="V168" s="106">
-        <f t="shared" si="55"/>
+        <f t="shared" si="79"/>
         <v>1.1803176751231286</v>
       </c>
-    </row>
-    <row r="169" spans="1:22">
+      <c r="W168">
+        <f>W167</f>
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:23">
       <c r="A169">
         <v>27</v>
       </c>
@@ -45049,23 +45725,27 @@
         <v>2.7949999999999999</v>
       </c>
       <c r="S169" s="106">
-        <f t="shared" si="60"/>
+        <f t="shared" si="86"/>
         <v>2.7766212700554762</v>
       </c>
       <c r="T169" s="106">
-        <f t="shared" si="54"/>
+        <f t="shared" si="78"/>
         <v>0.22337872994452379</v>
       </c>
       <c r="U169" s="106">
-        <f t="shared" si="61"/>
+        <f t="shared" si="87"/>
         <v>4.3537116724564857</v>
       </c>
       <c r="V169" s="106">
-        <f t="shared" si="55"/>
+        <f t="shared" si="79"/>
         <v>1.6462883275435143</v>
       </c>
-    </row>
-    <row r="170" spans="1:22">
+      <c r="W169">
+        <f t="shared" ref="W169:W172" si="88">W168</f>
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:23">
       <c r="A170">
         <v>27</v>
       </c>
@@ -45121,23 +45801,27 @@
         <v>2.7949999999999999</v>
       </c>
       <c r="S170" s="106">
-        <f t="shared" si="60"/>
+        <f t="shared" si="86"/>
         <v>2.6077973461498449</v>
       </c>
       <c r="T170" s="106">
-        <f t="shared" si="54"/>
+        <f t="shared" si="78"/>
         <v>0.39220265385015507</v>
       </c>
       <c r="U170" s="106">
-        <f t="shared" si="61"/>
+        <f t="shared" si="87"/>
         <v>3.7361946830414241</v>
       </c>
       <c r="V170" s="106">
-        <f t="shared" si="55"/>
+        <f t="shared" si="79"/>
         <v>2.2638053169585759</v>
       </c>
-    </row>
-    <row r="171" spans="1:22">
+      <c r="W170">
+        <f t="shared" si="88"/>
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="171" spans="1:23">
       <c r="A171">
         <v>27</v>
       </c>
@@ -45193,23 +45877,27 @@
         <v>2.8249999999999997</v>
       </c>
       <c r="S171" s="106">
-        <f t="shared" si="60"/>
+        <f t="shared" si="86"/>
         <v>2.3326098668335202</v>
       </c>
       <c r="T171" s="106">
-        <f t="shared" si="54"/>
+        <f t="shared" si="78"/>
         <v>0.66739013316647977</v>
       </c>
       <c r="U171" s="106">
-        <f t="shared" si="61"/>
+        <f t="shared" si="87"/>
         <v>3.187821447424513</v>
       </c>
       <c r="V171" s="106">
-        <f t="shared" si="55"/>
+        <f t="shared" si="79"/>
         <v>2.812178552575487</v>
       </c>
-    </row>
-    <row r="172" spans="1:22">
+      <c r="W171">
+        <f t="shared" si="88"/>
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:23">
       <c r="A172">
         <v>27</v>
       </c>
@@ -45265,23 +45953,27 @@
         <v>2.8249999999999997</v>
       </c>
       <c r="S172" s="106">
-        <f t="shared" si="60"/>
+        <f t="shared" si="86"/>
         <v>2.3309119588654919</v>
       </c>
       <c r="T172" s="106">
-        <f t="shared" si="54"/>
+        <f t="shared" si="78"/>
         <v>0.66908804113450815</v>
       </c>
       <c r="U172" s="106">
-        <f t="shared" si="61"/>
+        <f t="shared" si="87"/>
         <v>2.6555940898495245</v>
       </c>
       <c r="V172" s="106">
-        <f t="shared" si="55"/>
+        <f t="shared" si="79"/>
         <v>3.3444059101504755</v>
       </c>
-    </row>
-    <row r="173" spans="1:22">
+      <c r="W172">
+        <f t="shared" si="88"/>
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:23">
       <c r="A173">
         <v>28</v>
       </c>
@@ -45337,7 +46029,7 @@
         <v>0.5</v>
       </c>
       <c r="T173" s="106">
-        <f t="shared" si="54"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="U173" s="106">
@@ -45345,11 +46037,15 @@
         <v>1</v>
       </c>
       <c r="V173" s="106">
-        <f t="shared" si="55"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:22">
+      <c r="W173" s="109">
+        <f>AVERAGE(B173:B179)</f>
+        <v>21.342857142857145</v>
+      </c>
+    </row>
+    <row r="174" spans="1:23">
       <c r="A174">
         <v>28</v>
       </c>
@@ -45405,23 +46101,27 @@
         <v>1</v>
       </c>
       <c r="S174" s="106">
-        <f t="shared" ref="S174:S179" si="62">E174*J174/$J$173*P174</f>
+        <f t="shared" ref="S174:S179" si="89">E174*J174/$J$173*P174</f>
         <v>0.50112535679229797</v>
       </c>
       <c r="T174" s="106">
-        <f t="shared" si="54"/>
+        <f t="shared" si="78"/>
         <v>-1.1253567922979713E-3</v>
       </c>
       <c r="U174" s="106">
-        <f t="shared" ref="U174:U179" si="63">F174*M174/$M$173*P174</f>
+        <f t="shared" ref="U174:U179" si="90">F174*M174/$M$173*P174</f>
         <v>0.96810670090225037</v>
       </c>
       <c r="V174" s="106">
-        <f t="shared" si="55"/>
+        <f t="shared" si="79"/>
         <v>3.1893299097749628E-2</v>
       </c>
-    </row>
-    <row r="175" spans="1:22">
+      <c r="W174">
+        <f>W173</f>
+        <v>21.342857142857145</v>
+      </c>
+    </row>
+    <row r="175" spans="1:23">
       <c r="A175">
         <v>28</v>
       </c>
@@ -45477,23 +46177,27 @@
         <v>0.95</v>
       </c>
       <c r="S175" s="106">
-        <f t="shared" si="62"/>
+        <f t="shared" si="89"/>
         <v>0.50733658211683608</v>
       </c>
       <c r="T175" s="106">
-        <f t="shared" si="54"/>
+        <f t="shared" si="78"/>
         <v>-7.3365821168360768E-3</v>
       </c>
       <c r="U175" s="106">
-        <f t="shared" si="63"/>
+        <f t="shared" si="90"/>
         <v>0.79172917851491897</v>
       </c>
       <c r="V175" s="106">
-        <f t="shared" si="55"/>
+        <f t="shared" si="79"/>
         <v>0.20827082148508103</v>
       </c>
-    </row>
-    <row r="176" spans="1:22">
+      <c r="W175">
+        <f t="shared" ref="W175:W179" si="91">W174</f>
+        <v>21.342857142857145</v>
+      </c>
+    </row>
+    <row r="176" spans="1:23">
       <c r="A176">
         <v>28</v>
       </c>
@@ -45549,23 +46253,27 @@
         <v>0.95</v>
       </c>
       <c r="S176" s="106">
-        <f t="shared" si="62"/>
+        <f t="shared" si="89"/>
         <v>0.47085238153473857</v>
       </c>
       <c r="T176" s="106">
-        <f t="shared" si="54"/>
+        <f t="shared" si="78"/>
         <v>2.9147618465261427E-2</v>
       </c>
       <c r="U176" s="106">
-        <f t="shared" si="63"/>
+        <f t="shared" si="90"/>
         <v>0.5980170389598688</v>
       </c>
       <c r="V176" s="106">
-        <f t="shared" si="55"/>
+        <f t="shared" si="79"/>
         <v>0.4019829610401312</v>
       </c>
-    </row>
-    <row r="177" spans="1:22">
+      <c r="W176">
+        <f t="shared" si="91"/>
+        <v>21.342857142857145</v>
+      </c>
+    </row>
+    <row r="177" spans="1:23">
       <c r="A177">
         <v>28</v>
       </c>
@@ -45621,23 +46329,27 @@
         <v>0.98</v>
       </c>
       <c r="S177" s="106">
-        <f t="shared" si="62"/>
+        <f t="shared" si="89"/>
         <v>0.42815374179864713</v>
       </c>
       <c r="T177" s="106">
-        <f t="shared" si="54"/>
+        <f t="shared" si="78"/>
         <v>7.1846258201352875E-2</v>
       </c>
       <c r="U177" s="106">
-        <f t="shared" si="63"/>
+        <f t="shared" si="90"/>
         <v>0.36527655932384728</v>
       </c>
       <c r="V177" s="106">
-        <f t="shared" si="55"/>
+        <f t="shared" si="79"/>
         <v>0.63472344067615272</v>
       </c>
-    </row>
-    <row r="178" spans="1:22">
+      <c r="W177">
+        <f t="shared" si="91"/>
+        <v>21.342857142857145</v>
+      </c>
+    </row>
+    <row r="178" spans="1:23">
       <c r="A178">
         <v>28</v>
       </c>
@@ -45693,23 +46405,27 @@
         <v>1</v>
       </c>
       <c r="S178" s="106">
-        <f t="shared" si="62"/>
+        <f t="shared" si="89"/>
         <v>0.28502153006039405</v>
       </c>
       <c r="T178" s="106">
-        <f t="shared" si="54"/>
+        <f t="shared" si="78"/>
         <v>0.21497846993960595</v>
       </c>
       <c r="U178" s="106">
-        <f t="shared" si="63"/>
+        <f t="shared" si="90"/>
         <v>0.15222405120655616</v>
       </c>
       <c r="V178" s="106">
-        <f t="shared" si="55"/>
+        <f t="shared" si="79"/>
         <v>0.84777594879344387</v>
       </c>
-    </row>
-    <row r="179" spans="1:22">
+      <c r="W178">
+        <f t="shared" si="91"/>
+        <v>21.342857142857145</v>
+      </c>
+    </row>
+    <row r="179" spans="1:23">
       <c r="A179">
         <v>28</v>
       </c>
@@ -45765,23 +46481,27 @@
         <v>1.0499999999999998</v>
       </c>
       <c r="S179" s="106">
-        <f t="shared" si="62"/>
+        <f t="shared" si="89"/>
         <v>8.9616592679425094E-2</v>
       </c>
       <c r="T179" s="106">
-        <f t="shared" si="54"/>
+        <f t="shared" si="78"/>
         <v>0.41038340732057488</v>
       </c>
       <c r="U179" s="106">
-        <f t="shared" si="63"/>
+        <f t="shared" si="90"/>
         <v>4.2591438476366372E-2</v>
       </c>
       <c r="V179" s="106">
-        <f t="shared" si="55"/>
+        <f t="shared" si="79"/>
         <v>0.95740856152363363</v>
       </c>
-    </row>
-    <row r="180" spans="1:22">
+      <c r="W179">
+        <f t="shared" si="91"/>
+        <v>21.342857142857145</v>
+      </c>
+    </row>
+    <row r="180" spans="1:23">
       <c r="A180">
         <v>29</v>
       </c>
@@ -45837,7 +46557,7 @@
         <v>1</v>
       </c>
       <c r="T180" s="106">
-        <f t="shared" si="54"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="U180" s="106">
@@ -45845,11 +46565,15 @@
         <v>2</v>
       </c>
       <c r="V180" s="106">
-        <f t="shared" si="55"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:22">
+      <c r="W180" s="109">
+        <f>AVERAGE(B180:B186)</f>
+        <v>20.385714285714283</v>
+      </c>
+    </row>
+    <row r="181" spans="1:23">
       <c r="A181">
         <v>29</v>
       </c>
@@ -45905,23 +46629,27 @@
         <v>2</v>
       </c>
       <c r="S181" s="106">
-        <f t="shared" ref="S181:S186" si="64">E181*J181/$J$180*P181</f>
+        <f t="shared" ref="S181:S186" si="92">E181*J181/$J$180*P181</f>
         <v>0.9923255534975739</v>
       </c>
       <c r="T181" s="106">
-        <f t="shared" si="54"/>
+        <f t="shared" si="78"/>
         <v>7.6744465024261022E-3</v>
       </c>
       <c r="U181" s="106">
-        <f t="shared" ref="U181:U186" si="65">F181*M181/$M$180*P181</f>
+        <f t="shared" ref="U181:U186" si="93">F181*M181/$M$180*P181</f>
         <v>1.9406087356759674</v>
       </c>
       <c r="V181" s="106">
-        <f t="shared" si="55"/>
+        <f t="shared" si="79"/>
         <v>5.9391264324032633E-2</v>
       </c>
-    </row>
-    <row r="182" spans="1:22">
+      <c r="W181">
+        <f>W180</f>
+        <v>20.385714285714283</v>
+      </c>
+    </row>
+    <row r="182" spans="1:23">
       <c r="A182">
         <v>29</v>
       </c>
@@ -45977,23 +46705,27 @@
         <v>1.97</v>
       </c>
       <c r="S182" s="106">
-        <f t="shared" si="64"/>
+        <f t="shared" si="92"/>
         <v>0.97312350896805533</v>
       </c>
       <c r="T182" s="106">
-        <f t="shared" si="54"/>
+        <f t="shared" si="78"/>
         <v>2.6876491031944671E-2</v>
       </c>
       <c r="U182" s="106">
-        <f t="shared" si="65"/>
+        <f t="shared" si="93"/>
         <v>1.7979260641843635</v>
       </c>
       <c r="V182" s="106">
-        <f t="shared" si="55"/>
+        <f t="shared" si="79"/>
         <v>0.20207393581563649</v>
       </c>
-    </row>
-    <row r="183" spans="1:22">
+      <c r="W182">
+        <f t="shared" ref="W182:W186" si="94">W181</f>
+        <v>20.385714285714283</v>
+      </c>
+    </row>
+    <row r="183" spans="1:23">
       <c r="A183">
         <v>29</v>
       </c>
@@ -46049,23 +46781,27 @@
         <v>1.93</v>
       </c>
       <c r="S183" s="106">
-        <f t="shared" si="64"/>
+        <f t="shared" si="92"/>
         <v>0.93879215631694291</v>
       </c>
       <c r="T183" s="106">
-        <f t="shared" si="54"/>
+        <f t="shared" si="78"/>
         <v>6.1207843683057095E-2</v>
       </c>
       <c r="U183" s="106">
-        <f t="shared" si="65"/>
+        <f t="shared" si="93"/>
         <v>1.3678838375181195</v>
       </c>
       <c r="V183" s="106">
-        <f t="shared" si="55"/>
+        <f t="shared" si="79"/>
         <v>0.63211616248188052</v>
       </c>
-    </row>
-    <row r="184" spans="1:22">
+      <c r="W183">
+        <f t="shared" si="94"/>
+        <v>20.385714285714283</v>
+      </c>
+    </row>
+    <row r="184" spans="1:23">
       <c r="A184">
         <v>29</v>
       </c>
@@ -46121,23 +46857,27 @@
         <v>1.93</v>
       </c>
       <c r="S184" s="106">
-        <f t="shared" si="64"/>
+        <f t="shared" si="92"/>
         <v>0.90380945747899821</v>
       </c>
       <c r="T184" s="106">
-        <f t="shared" si="54"/>
+        <f t="shared" si="78"/>
         <v>9.6190542521001787E-2</v>
       </c>
       <c r="U184" s="106">
-        <f t="shared" si="65"/>
+        <f t="shared" si="93"/>
         <v>1.083714107651123</v>
       </c>
       <c r="V184" s="106">
-        <f t="shared" si="55"/>
+        <f t="shared" si="79"/>
         <v>0.91628589234887703</v>
       </c>
-    </row>
-    <row r="185" spans="1:22">
+      <c r="W184">
+        <f t="shared" si="94"/>
+        <v>20.385714285714283</v>
+      </c>
+    </row>
+    <row r="185" spans="1:23">
       <c r="A185">
         <v>29</v>
       </c>
@@ -46193,23 +46933,27 @@
         <v>1.93</v>
       </c>
       <c r="S185" s="106">
-        <f t="shared" si="64"/>
+        <f t="shared" si="92"/>
         <v>0.81334481054801366</v>
       </c>
       <c r="T185" s="106">
-        <f t="shared" si="54"/>
+        <f t="shared" si="78"/>
         <v>0.18665518945198634</v>
       </c>
       <c r="U185" s="106">
-        <f t="shared" si="65"/>
+        <f t="shared" si="93"/>
         <v>0.75403603889576643</v>
       </c>
       <c r="V185" s="106">
-        <f t="shared" si="55"/>
+        <f t="shared" si="79"/>
         <v>1.2459639611042337</v>
       </c>
-    </row>
-    <row r="186" spans="1:22">
+      <c r="W185">
+        <f t="shared" si="94"/>
+        <v>20.385714285714283</v>
+      </c>
+    </row>
+    <row r="186" spans="1:23">
       <c r="A186">
         <v>29</v>
       </c>
@@ -46265,23 +47009,27 @@
         <v>1.95</v>
       </c>
       <c r="S186" s="106">
-        <f t="shared" si="64"/>
+        <f t="shared" si="92"/>
         <v>0.68290578479443298</v>
       </c>
       <c r="T186" s="106">
-        <f t="shared" si="54"/>
+        <f t="shared" si="78"/>
         <v>0.31709421520556702</v>
       </c>
       <c r="U186" s="106">
-        <f t="shared" si="65"/>
+        <f t="shared" si="93"/>
         <v>0.48490381868393484</v>
       </c>
       <c r="V186" s="106">
-        <f t="shared" si="55"/>
+        <f t="shared" si="79"/>
         <v>1.515096181316065</v>
       </c>
-    </row>
-    <row r="187" spans="1:22">
+      <c r="W186">
+        <f t="shared" si="94"/>
+        <v>20.385714285714283</v>
+      </c>
+    </row>
+    <row r="187" spans="1:23">
       <c r="A187">
         <v>30</v>
       </c>
@@ -46333,23 +47081,27 @@
         <v>2</v>
       </c>
       <c r="S187" s="106">
-        <f>E187*J187/$J$187*P187</f>
+        <f t="shared" ref="S187:S192" si="95">E187*J187/$J$187*P187</f>
         <v>3.0000000000000004</v>
       </c>
       <c r="T187" s="106">
-        <f t="shared" si="54"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="U187" s="106">
-        <f>F187*M187/$M$187*P187</f>
+        <f t="shared" ref="U187:U192" si="96">F187*M187/$M$187*P187</f>
         <v>6</v>
       </c>
       <c r="V187" s="106">
-        <f t="shared" si="55"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:22">
+      <c r="W187" s="109">
+        <f>AVERAGE(B187:B192)</f>
+        <v>20.316666666666666</v>
+      </c>
+    </row>
+    <row r="188" spans="1:23">
       <c r="A188">
         <v>30</v>
       </c>
@@ -46405,23 +47157,27 @@
         <v>1.9</v>
       </c>
       <c r="S188" s="106">
-        <f>E188*J188/$J$187*P188</f>
+        <f t="shared" si="95"/>
         <v>2.5929225214470875</v>
       </c>
       <c r="T188" s="106">
-        <f t="shared" si="54"/>
+        <f t="shared" si="78"/>
         <v>0.40707747855291254</v>
       </c>
       <c r="U188" s="106">
-        <f>F188*M188/$M$187*P188</f>
+        <f t="shared" si="96"/>
         <v>4.2115984566270734</v>
       </c>
       <c r="V188" s="106">
-        <f t="shared" si="55"/>
+        <f t="shared" si="79"/>
         <v>1.7884015433729266</v>
       </c>
-    </row>
-    <row r="189" spans="1:22">
+      <c r="W188">
+        <f>W187</f>
+        <v>20.316666666666666</v>
+      </c>
+    </row>
+    <row r="189" spans="1:23">
       <c r="A189">
         <v>30</v>
       </c>
@@ -46477,23 +47233,27 @@
         <v>1.9</v>
       </c>
       <c r="S189" s="106">
-        <f>E189*J189/$J$187*P189</f>
+        <f t="shared" si="95"/>
         <v>2.467473881180303</v>
       </c>
       <c r="T189" s="106">
-        <f t="shared" si="54"/>
+        <f t="shared" si="78"/>
         <v>0.53252611881969703</v>
       </c>
       <c r="U189" s="106">
-        <f>F189*M189/$M$187*P189</f>
+        <f t="shared" si="96"/>
         <v>3.7489044564968941</v>
       </c>
       <c r="V189" s="106">
-        <f t="shared" si="55"/>
+        <f t="shared" si="79"/>
         <v>2.2510955435031059</v>
       </c>
-    </row>
-    <row r="190" spans="1:22">
+      <c r="W189">
+        <f t="shared" ref="W189:W192" si="97">W188</f>
+        <v>20.316666666666666</v>
+      </c>
+    </row>
+    <row r="190" spans="1:23">
       <c r="A190">
         <v>30</v>
       </c>
@@ -46549,23 +47309,27 @@
         <v>1.9</v>
       </c>
       <c r="S190" s="106">
-        <f>E190*J190/$J$187*P190</f>
+        <f t="shared" si="95"/>
         <v>2.3508451115375917</v>
       </c>
       <c r="T190" s="106">
-        <f t="shared" si="54"/>
+        <f t="shared" si="78"/>
         <v>0.64915488846240832</v>
       </c>
       <c r="U190" s="106">
-        <f>F190*M190/$M$187*P190</f>
+        <f t="shared" si="96"/>
         <v>3.3272479266035053</v>
       </c>
       <c r="V190" s="106">
-        <f t="shared" si="55"/>
+        <f t="shared" si="79"/>
         <v>2.6727520733964947</v>
       </c>
-    </row>
-    <row r="191" spans="1:22">
+      <c r="W190">
+        <f t="shared" si="97"/>
+        <v>20.316666666666666</v>
+      </c>
+    </row>
+    <row r="191" spans="1:23">
       <c r="A191">
         <v>30</v>
       </c>
@@ -46621,23 +47385,27 @@
         <v>1.88</v>
       </c>
       <c r="S191" s="106">
-        <f>E191*J191/$J$187*P191</f>
+        <f t="shared" si="95"/>
         <v>2.2707164634965253</v>
       </c>
       <c r="T191" s="106">
-        <f t="shared" si="54"/>
+        <f t="shared" si="78"/>
         <v>0.72928353650347466</v>
       </c>
       <c r="U191" s="106">
-        <f>F191*M191/$M$187*P191</f>
+        <f t="shared" si="96"/>
         <v>2.7215237855928649</v>
       </c>
       <c r="V191" s="106">
-        <f t="shared" si="55"/>
+        <f t="shared" si="79"/>
         <v>3.2784762144071351</v>
       </c>
-    </row>
-    <row r="192" spans="1:22">
+      <c r="W191">
+        <f t="shared" si="97"/>
+        <v>20.316666666666666</v>
+      </c>
+    </row>
+    <row r="192" spans="1:23">
       <c r="A192">
         <v>30</v>
       </c>
@@ -46693,23 +47461,27 @@
         <v>1.9</v>
       </c>
       <c r="S192" s="106">
-        <f>E192*J192/$J$187*P192</f>
+        <f t="shared" si="95"/>
         <v>2.233406051139279</v>
       </c>
       <c r="T192" s="106">
-        <f t="shared" si="54"/>
+        <f t="shared" si="78"/>
         <v>0.76659394886072096</v>
       </c>
       <c r="U192" s="106">
-        <f>F192*M192/$M$187*P192</f>
+        <f t="shared" si="96"/>
         <v>2.0130706551766422</v>
       </c>
       <c r="V192" s="106">
-        <f t="shared" si="55"/>
+        <f t="shared" si="79"/>
         <v>3.9869293448233578</v>
       </c>
-    </row>
-    <row r="193" spans="1:22">
+      <c r="W192">
+        <f t="shared" si="97"/>
+        <v>20.316666666666666</v>
+      </c>
+    </row>
+    <row r="193" spans="1:23">
       <c r="A193">
         <v>31</v>
       </c>
@@ -46761,23 +47533,27 @@
         <v>2</v>
       </c>
       <c r="S193" s="106">
-        <f>E193*J193/$J$193*P193</f>
+        <f t="shared" ref="S193:S198" si="98">E193*J193/$J$193*P193</f>
         <v>3</v>
       </c>
       <c r="T193" s="106">
-        <f t="shared" si="54"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="U193" s="106">
-        <f>F193*M193/$M$193*P193</f>
+        <f t="shared" ref="U193:U198" si="99">F193*M193/$M$193*P193</f>
         <v>6</v>
       </c>
       <c r="V193" s="106">
-        <f t="shared" si="55"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:22">
+      <c r="W193" s="109">
+        <f>AVERAGE(B193:B198)</f>
+        <v>32.916666666666664</v>
+      </c>
+    </row>
+    <row r="194" spans="1:23">
       <c r="A194">
         <v>31</v>
       </c>
@@ -46833,23 +47609,27 @@
         <v>1.95</v>
       </c>
       <c r="S194" s="106">
-        <f>E194*J194/$J$193*P194</f>
+        <f t="shared" si="98"/>
         <v>2.5327025780470174</v>
       </c>
       <c r="T194" s="106">
-        <f t="shared" si="54"/>
+        <f t="shared" si="78"/>
         <v>0.46729742195298263</v>
       </c>
       <c r="U194" s="106">
-        <f>F194*M194/$M$193*P194</f>
+        <f t="shared" si="99"/>
         <v>4.7925136930780843</v>
       </c>
       <c r="V194" s="106">
-        <f t="shared" si="55"/>
+        <f t="shared" si="79"/>
         <v>1.2074863069219157</v>
       </c>
-    </row>
-    <row r="195" spans="1:22">
+      <c r="W194">
+        <f>W193</f>
+        <v>32.916666666666664</v>
+      </c>
+    </row>
+    <row r="195" spans="1:23">
       <c r="A195">
         <v>31</v>
       </c>
@@ -46905,23 +47685,27 @@
         <v>1.95</v>
       </c>
       <c r="S195" s="106">
-        <f>E195*J195/$J$193*P195</f>
+        <f t="shared" si="98"/>
         <v>2.2215816291132953</v>
       </c>
       <c r="T195" s="106">
-        <f t="shared" si="54"/>
+        <f t="shared" si="78"/>
         <v>0.77841837088670474</v>
       </c>
       <c r="U195" s="106">
-        <f>F195*M195/$M$193*P195</f>
+        <f t="shared" si="99"/>
         <v>3.4732043833001267</v>
       </c>
       <c r="V195" s="106">
-        <f t="shared" si="55"/>
+        <f t="shared" si="79"/>
         <v>2.5267956166998733</v>
       </c>
-    </row>
-    <row r="196" spans="1:22">
+      <c r="W195">
+        <f t="shared" ref="W195:W198" si="100">W194</f>
+        <v>32.916666666666664</v>
+      </c>
+    </row>
+    <row r="196" spans="1:23">
       <c r="A196">
         <v>31</v>
       </c>
@@ -46977,23 +47761,27 @@
         <v>2</v>
       </c>
       <c r="S196" s="106">
-        <f>E196*J196/$J$193*P196</f>
+        <f t="shared" si="98"/>
         <v>1.6799988414159341</v>
       </c>
       <c r="T196" s="106">
-        <f t="shared" si="54"/>
+        <f t="shared" si="78"/>
         <v>1.3200011585840659</v>
       </c>
       <c r="U196" s="106">
-        <f>F196*M196/$M$193*P196</f>
+        <f t="shared" si="99"/>
         <v>2.1179755547306467</v>
       </c>
       <c r="V196" s="106">
-        <f t="shared" si="55"/>
+        <f t="shared" si="79"/>
         <v>3.8820244452693533</v>
       </c>
-    </row>
-    <row r="197" spans="1:22">
+      <c r="W196">
+        <f t="shared" si="100"/>
+        <v>32.916666666666664</v>
+      </c>
+    </row>
+    <row r="197" spans="1:23">
       <c r="A197">
         <v>31</v>
       </c>
@@ -47049,23 +47837,27 @@
         <v>2.0999999999999996</v>
       </c>
       <c r="S197" s="106">
-        <f>E197*J197/$J$193*P197</f>
+        <f t="shared" si="98"/>
         <v>1.0682296087603447</v>
       </c>
       <c r="T197" s="106">
-        <f t="shared" si="54"/>
+        <f t="shared" si="78"/>
         <v>1.9317703912396553</v>
       </c>
       <c r="U197" s="106">
-        <f>F197*M197/$M$193*P197</f>
+        <f t="shared" si="99"/>
         <v>1.1697070476738813</v>
       </c>
       <c r="V197" s="106">
-        <f t="shared" si="55"/>
+        <f t="shared" si="79"/>
         <v>4.8302929523261184</v>
       </c>
-    </row>
-    <row r="198" spans="1:22">
+      <c r="W197">
+        <f t="shared" si="100"/>
+        <v>32.916666666666664</v>
+      </c>
+    </row>
+    <row r="198" spans="1:23">
       <c r="A198">
         <v>31</v>
       </c>
@@ -47121,23 +47913,27 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="S198" s="106">
-        <f>E198*J198/$J$193*P198</f>
+        <f t="shared" si="98"/>
         <v>0.37670034963883736</v>
       </c>
       <c r="T198" s="106">
-        <f t="shared" si="54"/>
+        <f t="shared" si="78"/>
         <v>2.6232996503611625</v>
       </c>
       <c r="U198" s="106">
-        <f>F198*M198/$M$193*P198</f>
+        <f t="shared" si="99"/>
         <v>0.45938486981159249</v>
       </c>
       <c r="V198" s="106">
-        <f t="shared" si="55"/>
+        <f t="shared" si="79"/>
         <v>5.5406151301884075</v>
       </c>
-    </row>
-    <row r="199" spans="1:22">
+      <c r="W198">
+        <f t="shared" si="100"/>
+        <v>32.916666666666664</v>
+      </c>
+    </row>
+    <row r="199" spans="1:23">
       <c r="A199">
         <v>32</v>
       </c>
@@ -47193,7 +47989,7 @@
         <v>2.9999999999999996</v>
       </c>
       <c r="T199" s="106">
-        <f t="shared" si="54"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="U199" s="106">
@@ -47201,11 +47997,15 @@
         <v>6</v>
       </c>
       <c r="V199" s="106">
-        <f t="shared" si="55"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:22">
+      <c r="W199" s="109">
+        <f>AVERAGE(B199:B204)</f>
+        <v>33.883333333333333</v>
+      </c>
+    </row>
+    <row r="200" spans="1:23">
       <c r="A200">
         <v>32</v>
       </c>
@@ -47261,23 +48061,27 @@
         <v>1.9</v>
       </c>
       <c r="S200" s="106">
-        <f t="shared" ref="S200:S204" si="66">E200*J200/$J$199*P200</f>
+        <f t="shared" ref="S200:S204" si="101">E200*J200/$J$199*P200</f>
         <v>2.6042723043321914</v>
       </c>
       <c r="T200" s="106">
-        <f t="shared" ref="T200:T216" si="67">E200-S200</f>
+        <f t="shared" ref="T200:T216" si="102">E200-S200</f>
         <v>0.39572769566780863</v>
       </c>
       <c r="U200" s="106">
-        <f t="shared" ref="U200:U204" si="68">F200*M200/$M$199*P200</f>
+        <f t="shared" ref="U200:U204" si="103">F200*M200/$M$199*P200</f>
         <v>5.524613820372811</v>
       </c>
       <c r="V200" s="106">
-        <f t="shared" ref="V200:V216" si="69">F200-U200</f>
+        <f t="shared" ref="V200:V216" si="104">F200-U200</f>
         <v>0.47538617962718899</v>
       </c>
-    </row>
-    <row r="201" spans="1:22">
+      <c r="W200">
+        <f>W199</f>
+        <v>33.883333333333333</v>
+      </c>
+    </row>
+    <row r="201" spans="1:23">
       <c r="A201">
         <v>32</v>
       </c>
@@ -47333,23 +48137,27 @@
         <v>1.9</v>
       </c>
       <c r="S201" s="106">
-        <f t="shared" si="66"/>
+        <f t="shared" si="101"/>
         <v>2.2561734560983444</v>
       </c>
       <c r="T201" s="106">
-        <f t="shared" si="67"/>
+        <f t="shared" si="102"/>
         <v>0.74382654390165559</v>
       </c>
       <c r="U201" s="106">
-        <f t="shared" si="68"/>
+        <f t="shared" si="103"/>
         <v>4.0831235563923931</v>
       </c>
       <c r="V201" s="106">
-        <f t="shared" si="69"/>
+        <f t="shared" si="104"/>
         <v>1.9168764436076069</v>
       </c>
-    </row>
-    <row r="202" spans="1:22">
+      <c r="W201">
+        <f t="shared" ref="W201:W204" si="105">W200</f>
+        <v>33.883333333333333</v>
+      </c>
+    </row>
+    <row r="202" spans="1:23">
       <c r="A202">
         <v>32</v>
       </c>
@@ -47405,23 +48213,27 @@
         <v>1.95</v>
       </c>
       <c r="S202" s="106">
-        <f t="shared" si="66"/>
+        <f t="shared" si="101"/>
         <v>1.7933966388510998</v>
       </c>
       <c r="T202" s="106">
-        <f t="shared" si="67"/>
+        <f t="shared" si="102"/>
         <v>1.2066033611489002</v>
       </c>
       <c r="U202" s="106">
-        <f t="shared" si="68"/>
+        <f t="shared" si="103"/>
         <v>2.6430717379024662</v>
       </c>
       <c r="V202" s="106">
-        <f t="shared" si="69"/>
+        <f t="shared" si="104"/>
         <v>3.3569282620975338</v>
       </c>
-    </row>
-    <row r="203" spans="1:22">
+      <c r="W202">
+        <f t="shared" si="105"/>
+        <v>33.883333333333333</v>
+      </c>
+    </row>
+    <row r="203" spans="1:23">
       <c r="A203">
         <v>32</v>
       </c>
@@ -47477,23 +48289,27 @@
         <v>2</v>
       </c>
       <c r="S203" s="106">
-        <f t="shared" si="66"/>
+        <f t="shared" si="101"/>
         <v>1.2455267384680708</v>
       </c>
       <c r="T203" s="106">
-        <f t="shared" si="67"/>
+        <f t="shared" si="102"/>
         <v>1.7544732615319292</v>
       </c>
       <c r="U203" s="106">
-        <f t="shared" si="68"/>
+        <f t="shared" si="103"/>
         <v>1.5248301577857277</v>
       </c>
       <c r="V203" s="106">
-        <f t="shared" si="69"/>
+        <f t="shared" si="104"/>
         <v>4.4751698422142727</v>
       </c>
-    </row>
-    <row r="204" spans="1:22">
+      <c r="W203">
+        <f t="shared" si="105"/>
+        <v>33.883333333333333</v>
+      </c>
+    </row>
+    <row r="204" spans="1:23">
       <c r="A204">
         <v>32</v>
       </c>
@@ -47549,23 +48365,27 @@
         <v>2.13</v>
       </c>
       <c r="S204" s="106">
-        <f t="shared" si="66"/>
+        <f t="shared" si="101"/>
         <v>0.60851575455521634</v>
       </c>
       <c r="T204" s="106">
-        <f t="shared" si="67"/>
+        <f t="shared" si="102"/>
         <v>2.3914842454447838</v>
       </c>
       <c r="U204" s="106">
-        <f t="shared" si="68"/>
+        <f t="shared" si="103"/>
         <v>0.71682116362266979</v>
       </c>
       <c r="V204" s="106">
-        <f t="shared" si="69"/>
+        <f t="shared" si="104"/>
         <v>5.2831788363773304</v>
       </c>
-    </row>
-    <row r="205" spans="1:22">
+      <c r="W204">
+        <f t="shared" si="105"/>
+        <v>33.883333333333333</v>
+      </c>
+    </row>
+    <row r="205" spans="1:23">
       <c r="A205">
         <v>33</v>
       </c>
@@ -47621,7 +48441,7 @@
         <v>3</v>
       </c>
       <c r="T205" s="106">
-        <f t="shared" si="67"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="U205" s="106">
@@ -47629,11 +48449,15 @@
         <v>6</v>
       </c>
       <c r="V205" s="106">
-        <f t="shared" si="69"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:22">
+      <c r="W205" s="109">
+        <f>AVERAGE(B205:B209)</f>
+        <v>34.200000000000003</v>
+      </c>
+    </row>
+    <row r="206" spans="1:23">
       <c r="A206">
         <v>33</v>
       </c>
@@ -47693,7 +48517,7 @@
         <v>2.1349453521748734</v>
       </c>
       <c r="T206" s="106">
-        <f t="shared" si="67"/>
+        <f t="shared" si="102"/>
         <v>0.86505464782512664</v>
       </c>
       <c r="U206" s="106">
@@ -47701,11 +48525,15 @@
         <v>3.578498497203316</v>
       </c>
       <c r="V206" s="106">
-        <f t="shared" si="69"/>
+        <f t="shared" si="104"/>
         <v>2.421501502796684</v>
       </c>
-    </row>
-    <row r="207" spans="1:22">
+      <c r="W206">
+        <f>W205</f>
+        <v>34.200000000000003</v>
+      </c>
+    </row>
+    <row r="207" spans="1:23">
       <c r="A207">
         <v>33</v>
       </c>
@@ -47765,7 +48593,7 @@
         <v>1.6354649073769496</v>
       </c>
       <c r="T207" s="106">
-        <f t="shared" si="67"/>
+        <f t="shared" si="102"/>
         <v>1.3645350926230504</v>
       </c>
       <c r="U207" s="106">
@@ -47773,11 +48601,15 @@
         <v>2.1411788754857697</v>
       </c>
       <c r="V207" s="106">
-        <f t="shared" si="69"/>
+        <f t="shared" si="104"/>
         <v>3.8588211245142303</v>
       </c>
-    </row>
-    <row r="208" spans="1:22">
+      <c r="W207">
+        <f t="shared" ref="W207:W209" si="106">W206</f>
+        <v>34.200000000000003</v>
+      </c>
+    </row>
+    <row r="208" spans="1:23">
       <c r="A208">
         <v>33</v>
       </c>
@@ -47837,7 +48669,7 @@
         <v>0.94632560686009892</v>
       </c>
       <c r="T208" s="106">
-        <f t="shared" si="67"/>
+        <f t="shared" si="102"/>
         <v>2.0536743931399011</v>
       </c>
       <c r="U208" s="106">
@@ -47845,11 +48677,15 @@
         <v>1.0712244760428602</v>
       </c>
       <c r="V208" s="106">
-        <f t="shared" si="69"/>
+        <f t="shared" si="104"/>
         <v>4.9287755239571398</v>
       </c>
-    </row>
-    <row r="209" spans="1:22">
+      <c r="W208">
+        <f t="shared" si="106"/>
+        <v>34.200000000000003</v>
+      </c>
+    </row>
+    <row r="209" spans="1:23">
       <c r="A209">
         <v>33</v>
       </c>
@@ -47909,7 +48745,7 @@
         <v>0.25153966388940219</v>
       </c>
       <c r="T209" s="106">
-        <f t="shared" si="67"/>
+        <f t="shared" si="102"/>
         <v>2.7484603361105977</v>
       </c>
       <c r="U209" s="106">
@@ -47917,11 +48753,15 @@
         <v>0.28316901408450712</v>
       </c>
       <c r="V209" s="106">
-        <f t="shared" si="69"/>
+        <f t="shared" si="104"/>
         <v>5.7168309859154931</v>
       </c>
-    </row>
-    <row r="210" spans="1:22">
+      <c r="W209">
+        <f t="shared" si="106"/>
+        <v>34.200000000000003</v>
+      </c>
+    </row>
+    <row r="210" spans="1:23">
       <c r="A210">
         <v>34</v>
       </c>
@@ -47977,7 +48817,7 @@
         <v>3</v>
       </c>
       <c r="T210" s="106">
-        <f t="shared" si="67"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="U210" s="106">
@@ -47985,11 +48825,15 @@
         <v>6</v>
       </c>
       <c r="V210" s="106">
-        <f t="shared" si="69"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:22">
+      <c r="W210" s="109">
+        <f>AVERAGE(B210:B216)</f>
+        <v>32.728571428571428</v>
+      </c>
+    </row>
+    <row r="211" spans="1:23">
       <c r="A211">
         <v>34</v>
       </c>
@@ -48045,23 +48889,27 @@
         <v>1.9</v>
       </c>
       <c r="S211" s="106">
-        <f t="shared" ref="S211:S216" si="70">E211*J211/$J$210*P211</f>
+        <f t="shared" ref="S211:S216" si="107">E211*J211/$J$210*P211</f>
         <v>2.6602343968450479</v>
       </c>
       <c r="T211" s="106">
-        <f t="shared" si="67"/>
+        <f t="shared" si="102"/>
         <v>0.33976560315495208</v>
       </c>
       <c r="U211" s="106">
-        <f t="shared" ref="U211:U216" si="71">F211*M211/$M$210*P211</f>
+        <f t="shared" ref="U211:U216" si="108">F211*M211/$M$210*P211</f>
         <v>5.2887175685693109</v>
       </c>
       <c r="V211" s="106">
-        <f t="shared" si="69"/>
+        <f t="shared" si="104"/>
         <v>0.71128243143068914</v>
       </c>
-    </row>
-    <row r="212" spans="1:22">
+      <c r="W211">
+        <f>W210</f>
+        <v>32.728571428571428</v>
+      </c>
+    </row>
+    <row r="212" spans="1:23">
       <c r="A212">
         <v>34</v>
       </c>
@@ -48117,23 +48965,27 @@
         <v>1.93</v>
       </c>
       <c r="S212" s="106">
-        <f t="shared" si="70"/>
+        <f t="shared" si="107"/>
         <v>2.350896156274314</v>
       </c>
       <c r="T212" s="106">
-        <f t="shared" si="67"/>
+        <f t="shared" si="102"/>
         <v>0.64910384372568597</v>
       </c>
       <c r="U212" s="106">
-        <f t="shared" si="71"/>
+        <f t="shared" si="108"/>
         <v>3.8428326616798083</v>
       </c>
       <c r="V212" s="106">
-        <f t="shared" si="69"/>
+        <f t="shared" si="104"/>
         <v>2.1571673383201917</v>
       </c>
-    </row>
-    <row r="213" spans="1:22">
+      <c r="W212">
+        <f t="shared" ref="W212:W216" si="109">W211</f>
+        <v>32.728571428571428</v>
+      </c>
+    </row>
+    <row r="213" spans="1:23">
       <c r="A213">
         <v>34</v>
       </c>
@@ -48189,23 +49041,27 @@
         <v>2</v>
       </c>
       <c r="S213" s="106">
-        <f t="shared" si="70"/>
+        <f t="shared" si="107"/>
         <v>1.5802279616834805</v>
       </c>
       <c r="T213" s="106">
-        <f t="shared" si="67"/>
+        <f t="shared" si="102"/>
         <v>1.4197720383165195</v>
       </c>
       <c r="U213" s="106">
-        <f t="shared" si="71"/>
+        <f t="shared" si="108"/>
         <v>1.9436400835635825</v>
       </c>
       <c r="V213" s="106">
-        <f t="shared" si="69"/>
+        <f t="shared" si="104"/>
         <v>4.056359916436417</v>
       </c>
-    </row>
-    <row r="214" spans="1:22">
+      <c r="W213">
+        <f t="shared" si="109"/>
+        <v>32.728571428571428</v>
+      </c>
+    </row>
+    <row r="214" spans="1:23">
       <c r="A214">
         <v>34</v>
       </c>
@@ -48261,23 +49117,27 @@
         <v>2.0999999999999996</v>
       </c>
       <c r="S214" s="106">
-        <f t="shared" si="70"/>
+        <f t="shared" si="107"/>
         <v>0.84141351456132829</v>
       </c>
       <c r="T214" s="106">
-        <f t="shared" si="67"/>
+        <f t="shared" si="102"/>
         <v>2.1585864854386716</v>
       </c>
       <c r="U214" s="106">
-        <f t="shared" si="71"/>
+        <f t="shared" si="108"/>
         <v>0.84638907383696105</v>
       </c>
       <c r="V214" s="106">
-        <f t="shared" si="69"/>
+        <f t="shared" si="104"/>
         <v>5.1536109261630392</v>
       </c>
-    </row>
-    <row r="215" spans="1:22">
+      <c r="W214">
+        <f t="shared" si="109"/>
+        <v>32.728571428571428</v>
+      </c>
+    </row>
+    <row r="215" spans="1:23">
       <c r="A215">
         <v>34</v>
       </c>
@@ -48333,23 +49193,27 @@
         <v>2.1999999999999997</v>
       </c>
       <c r="S215" s="106">
-        <f t="shared" si="70"/>
+        <f t="shared" si="107"/>
         <v>6.6804852851040583E-2</v>
       </c>
       <c r="T215" s="106">
-        <f t="shared" si="67"/>
+        <f t="shared" si="102"/>
         <v>2.9331951471489592</v>
       </c>
       <c r="U215" s="106">
-        <f t="shared" si="71"/>
+        <f t="shared" si="108"/>
         <v>6.055490316059034E-2</v>
       </c>
       <c r="V215" s="106">
-        <f t="shared" si="69"/>
+        <f t="shared" si="104"/>
         <v>5.9394450968394095</v>
       </c>
-    </row>
-    <row r="216" spans="1:22">
+      <c r="W215">
+        <f t="shared" si="109"/>
+        <v>32.728571428571428</v>
+      </c>
+    </row>
+    <row r="216" spans="1:23">
       <c r="A216">
         <v>34</v>
       </c>
@@ -48405,20 +49269,24 @@
         <v>2.25</v>
       </c>
       <c r="S216" s="106">
-        <f t="shared" si="70"/>
+        <f t="shared" si="107"/>
         <v>1.0261754933847489E-2</v>
       </c>
       <c r="T216" s="106">
-        <f t="shared" si="67"/>
+        <f t="shared" si="102"/>
         <v>2.9897382450661527</v>
       </c>
       <c r="U216" s="106">
-        <f t="shared" si="71"/>
+        <f t="shared" si="108"/>
         <v>6.6985253938944677E-3</v>
       </c>
       <c r="V216" s="106">
-        <f t="shared" si="69"/>
+        <f t="shared" si="104"/>
         <v>5.9933014746061053</v>
+      </c>
+      <c r="W216">
+        <f t="shared" si="109"/>
+        <v>32.728571428571428</v>
       </c>
     </row>
   </sheetData>

--- a/Project/BMED/Data treatment/250110_BMED_train data_v1.xlsx
+++ b/Project/BMED/Data treatment/250110_BMED_train data_v1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bsjun\Documents\workspace\Git\repos_python\Project\BMED\Data treatment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\repos_python\Project\BMED\Data treatment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78AA73D5-5BF6-4C50-AEBE-7F56D4D7EFED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{247F6815-92E3-4A5D-BE8C-D9F9D2547DF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="9150" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4524,7 +4524,7 @@
       <selection activeCell="E117" sqref="E117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
@@ -7405,9 +7405,9 @@
       <selection pane="bottomLeft" sqref="A1:U281"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="11" max="11" width="28.08203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -16288,7 +16288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:21" ht="17.5">
+    <row r="131" spans="1:21" ht="17.25">
       <c r="A131" s="49">
         <v>28.8</v>
       </c>
@@ -16357,7 +16357,7 @@
         <v>-8.2726137044532244E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:21" ht="17.5">
+    <row r="132" spans="1:21" ht="17.25">
       <c r="A132" s="49">
         <v>22.3</v>
       </c>
@@ -16426,7 +16426,7 @@
         <v>2.3624749867161086</v>
       </c>
     </row>
-    <row r="133" spans="1:21" ht="17.5">
+    <row r="133" spans="1:21" ht="17.25">
       <c r="A133" s="49">
         <v>24.9</v>
       </c>
@@ -16495,7 +16495,7 @@
         <v>2.5963558532295594</v>
       </c>
     </row>
-    <row r="134" spans="1:21" ht="17.5">
+    <row r="134" spans="1:21" ht="17.25">
       <c r="A134" s="49">
         <v>26</v>
       </c>
@@ -16564,7 +16564,7 @@
         <v>3.8790774842491</v>
       </c>
     </row>
-    <row r="135" spans="1:21" ht="17.5">
+    <row r="135" spans="1:21" ht="17.25">
       <c r="A135" s="49">
         <v>26.4</v>
       </c>
@@ -16633,7 +16633,7 @@
         <v>4.703778594281709</v>
       </c>
     </row>
-    <row r="136" spans="1:21" ht="17.5">
+    <row r="136" spans="1:21" ht="17.25">
       <c r="A136" s="50">
         <v>26.2</v>
       </c>
@@ -16702,7 +16702,7 @@
         <v>5.2730137134975639</v>
       </c>
     </row>
-    <row r="137" spans="1:21" ht="17.5">
+    <row r="137" spans="1:21" ht="17.25">
       <c r="A137" s="50">
         <v>26</v>
       </c>
@@ -16771,7 +16771,7 @@
         <v>5.5793035284275261</v>
       </c>
     </row>
-    <row r="138" spans="1:21" ht="17.5">
+    <row r="138" spans="1:21" ht="17.25">
       <c r="A138" s="92">
         <v>22.7</v>
       </c>
@@ -16836,7 +16836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:21" ht="17.5">
+    <row r="139" spans="1:21" ht="17.25">
       <c r="A139" s="92">
         <v>23.7</v>
       </c>
@@ -16905,7 +16905,7 @@
         <v>0.42598812311885581</v>
       </c>
     </row>
-    <row r="140" spans="1:21" ht="17.5">
+    <row r="140" spans="1:21" ht="17.25">
       <c r="A140" s="92">
         <v>26.7</v>
       </c>
@@ -16974,7 +16974,7 @@
         <v>2.379399342078544</v>
       </c>
     </row>
-    <row r="141" spans="1:21" ht="17.5">
+    <row r="141" spans="1:21" ht="17.25">
       <c r="A141" s="92">
         <v>27.7</v>
       </c>
@@ -17043,7 +17043,7 @@
         <v>3.4908035395993808</v>
       </c>
     </row>
-    <row r="142" spans="1:21" ht="17.5">
+    <row r="142" spans="1:21" ht="17.25">
       <c r="A142" s="92">
         <v>28.4</v>
       </c>
@@ -17112,7 +17112,7 @@
         <v>4.4023149088250833</v>
       </c>
     </row>
-    <row r="143" spans="1:21" ht="17.5">
+    <row r="143" spans="1:21" ht="17.25">
       <c r="A143" s="92">
         <v>28.4</v>
       </c>
@@ -17181,7 +17181,7 @@
         <v>5.0344921523237085</v>
       </c>
     </row>
-    <row r="144" spans="1:21" ht="17.5">
+    <row r="144" spans="1:21" ht="17.25">
       <c r="A144" s="92">
         <v>28.2</v>
       </c>
@@ -17250,7 +17250,7 @@
         <v>5.5213124917082945</v>
       </c>
     </row>
-    <row r="145" spans="1:21" ht="17.5">
+    <row r="145" spans="1:21" ht="17.25">
       <c r="A145" s="102">
         <v>24.7</v>
       </c>
@@ -17315,7 +17315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:21" ht="17.5">
+    <row r="146" spans="1:21" ht="17.25">
       <c r="A146" s="78">
         <v>19.600000000000001</v>
       </c>
@@ -17384,7 +17384,7 @@
         <v>8.5216082880082977E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:21" ht="17.5">
+    <row r="147" spans="1:21" ht="17.25">
       <c r="A147" s="78">
         <v>19.3</v>
       </c>
@@ -22308,7 +22308,7 @@
         <v>2.5237554898270136</v>
       </c>
     </row>
-    <row r="219" spans="1:21" ht="17.5">
+    <row r="219" spans="1:21" ht="17.25">
       <c r="A219" s="68">
         <v>18</v>
       </c>
@@ -22377,7 +22377,7 @@
         <v>2.8221452259311892</v>
       </c>
     </row>
-    <row r="220" spans="1:21" ht="17.5">
+    <row r="220" spans="1:21" ht="17.25">
       <c r="A220" s="104">
         <v>22.5</v>
       </c>
@@ -26761,7 +26761,7 @@
       <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="25" t="s">
@@ -26995,7 +26995,7 @@
         <v>543.99318984124682</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="17.5">
+    <row r="9" spans="1:9" ht="17.25">
       <c r="A9" s="49">
         <v>22.3</v>
       </c>
@@ -27459,7 +27459,7 @@
         <v>1337.4265428000001</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="17.5">
+    <row r="25" spans="1:9" ht="17.25">
       <c r="A25" s="49">
         <v>28.8</v>
       </c>
@@ -27546,7 +27546,7 @@
         <v>60.420076255709098</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="17.5">
+    <row r="28" spans="1:9" ht="17.25">
       <c r="A28" s="49">
         <v>24.9</v>
       </c>
@@ -28474,7 +28474,7 @@
         <v>222.06601934981819</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="17.5">
+    <row r="60" spans="1:9" ht="17.25">
       <c r="A60" s="85">
         <v>26</v>
       </c>
@@ -29750,7 +29750,7 @@
         <v>61.525458909090922</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="17.5">
+    <row r="104" spans="1:9" ht="17.25">
       <c r="A104" s="49">
         <v>26.4</v>
       </c>
@@ -30069,7 +30069,7 @@
         <v>349.62176099054534</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="17.5">
+    <row r="115" spans="1:9" ht="17.25">
       <c r="A115" s="68">
         <v>18</v>
       </c>
@@ -30881,7 +30881,7 @@
         <v>199.96386116218187</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="17.5">
+    <row r="143" spans="1:9" ht="17.25">
       <c r="A143" s="50">
         <v>26.2</v>
       </c>
@@ -31809,7 +31809,7 @@
         <v>333.00426019694538</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="17.5">
+    <row r="175" spans="1:9" ht="17.25">
       <c r="A175" s="50">
         <v>26</v>
       </c>
@@ -32186,7 +32186,7 @@
         <v>617.25194930908924</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="17.5">
+    <row r="188" spans="1:9" ht="17.25">
       <c r="A188" s="29">
         <v>25.7</v>
       </c>
@@ -33013,10 +33013,10 @@
   <dimension ref="A1:W216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" t="s">
@@ -33149,7 +33149,6 @@
         <v>0</v>
       </c>
       <c r="U2" s="106">
-        <f>F2*M2/$M$2*P2</f>
         <v>1</v>
       </c>
       <c r="V2" s="106">
@@ -33225,11 +33224,11 @@
         <v>8.3434664986866691E-3</v>
       </c>
       <c r="U3" s="106">
-        <f t="shared" ref="U3:U7" si="1">F3*M3/$M$2*P3</f>
+        <f>F3*M3/$M$2*P3</f>
         <v>1.012353376365442</v>
       </c>
       <c r="V3" s="106">
-        <f t="shared" ref="V3:V57" si="2">F3-U3</f>
+        <f t="shared" ref="V3:V57" si="1">F3-U3</f>
         <v>-1.2353376365441981E-2</v>
       </c>
       <c r="W3">
@@ -33293,7 +33292,7 @@
         <v>0.98</v>
       </c>
       <c r="S4" s="106">
-        <f t="shared" ref="S3:S7" si="3">E4*J4/$J$2*P4</f>
+        <f t="shared" ref="S4:S7" si="2">E4*J4/$J$2*P4</f>
         <v>0.46336443859741527</v>
       </c>
       <c r="T4" s="106">
@@ -33301,11 +33300,11 @@
         <v>3.6635561402584726E-2</v>
       </c>
       <c r="U4" s="106">
+        <f t="shared" ref="U3:U7" si="3">F4*M4/$M$2*P4</f>
+        <v>0.82680587002096451</v>
+      </c>
+      <c r="V4" s="106">
         <f t="shared" si="1"/>
-        <v>0.82680587002096451</v>
-      </c>
-      <c r="V4" s="106">
-        <f t="shared" si="2"/>
         <v>0.17319412997903549</v>
       </c>
       <c r="W4">
@@ -33369,7 +33368,7 @@
         <v>1.01</v>
       </c>
       <c r="S5" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.39578062255181923</v>
       </c>
       <c r="T5" s="106">
@@ -33377,11 +33376,11 @@
         <v>0.10421937744818077</v>
       </c>
       <c r="U5" s="106">
+        <f t="shared" si="3"/>
+        <v>0.58051463770274736</v>
+      </c>
+      <c r="V5" s="106">
         <f t="shared" si="1"/>
-        <v>0.58051463770274736</v>
-      </c>
-      <c r="V5" s="106">
-        <f t="shared" si="2"/>
         <v>0.41948536229725264</v>
       </c>
       <c r="W5">
@@ -33445,7 +33444,7 @@
         <v>1.02</v>
       </c>
       <c r="S6" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.27708197714579641</v>
       </c>
       <c r="T6" s="106">
@@ -33453,11 +33452,11 @@
         <v>0.22291802285420359</v>
       </c>
       <c r="U6" s="106">
+        <f t="shared" si="3"/>
+        <v>0.34926810669756148</v>
+      </c>
+      <c r="V6" s="106">
         <f t="shared" si="1"/>
-        <v>0.34926810669756148</v>
-      </c>
-      <c r="V6" s="106">
-        <f t="shared" si="2"/>
         <v>0.65073189330243852</v>
       </c>
       <c r="W6">
@@ -33521,7 +33520,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="S7" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.10177861466651056</v>
       </c>
       <c r="T7" s="106">
@@ -33529,11 +33528,11 @@
         <v>0.39822138533348944</v>
       </c>
       <c r="U7" s="106">
+        <f t="shared" si="3"/>
+        <v>0.2014704187722976</v>
+      </c>
+      <c r="V7" s="106">
         <f t="shared" si="1"/>
-        <v>0.2014704187722976</v>
-      </c>
-      <c r="V7" s="106">
-        <f t="shared" si="2"/>
         <v>0.79852958122770246</v>
       </c>
       <c r="W7">
@@ -33605,7 +33604,7 @@
         <v>1</v>
       </c>
       <c r="V8" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W8">
@@ -33681,7 +33680,7 @@
         <v>0.99586692144333788</v>
       </c>
       <c r="V9" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.1330785566621175E-3</v>
       </c>
       <c r="W9">
@@ -33757,7 +33756,7 @@
         <v>1.087107471975348</v>
       </c>
       <c r="V10" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-8.7107471975347961E-2</v>
       </c>
       <c r="W10">
@@ -33833,7 +33832,7 @@
         <v>0.99177366739124617</v>
       </c>
       <c r="V11" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8.226332608753828E-3</v>
       </c>
       <c r="W11">
@@ -33909,7 +33908,7 @@
         <v>0.93178349342948485</v>
       </c>
       <c r="V12" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.8216506570515145E-2</v>
       </c>
       <c r="W12">
@@ -33985,7 +33984,7 @@
         <v>0.29929211369956682</v>
       </c>
       <c r="V13" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.70070788630043324</v>
       </c>
       <c r="W13">
@@ -34061,7 +34060,7 @@
         <v>0.27379815173453143</v>
       </c>
       <c r="V14" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.72620184826546863</v>
       </c>
       <c r="W14">
@@ -34209,7 +34208,7 @@
         <v>1</v>
       </c>
       <c r="V16" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W16">
@@ -34285,7 +34284,7 @@
         <v>0.99931160406536035</v>
       </c>
       <c r="V17" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.8839593463965176E-4</v>
       </c>
       <c r="W17">
@@ -34361,7 +34360,7 @@
         <v>0.57651938219972887</v>
       </c>
       <c r="V18" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.42348061780027113</v>
       </c>
       <c r="W18">
@@ -34437,7 +34436,7 @@
         <v>0.33219163628176135</v>
       </c>
       <c r="V19" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.6678083637182386</v>
       </c>
       <c r="W19">
@@ -34513,7 +34512,7 @@
         <v>0.18606054980716089</v>
       </c>
       <c r="V20" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.81393945019283909</v>
       </c>
       <c r="W20">
@@ -34589,7 +34588,7 @@
         <v>3.3306375957334548E-3</v>
       </c>
       <c r="V21" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.99666936240426651</v>
       </c>
       <c r="W21">
@@ -34661,7 +34660,7 @@
         <v>2</v>
       </c>
       <c r="V22" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W22">
@@ -34737,7 +34736,7 @@
         <v>1.6603645830648277</v>
       </c>
       <c r="V23" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.3396354169351723</v>
       </c>
       <c r="W23">
@@ -34813,7 +34812,7 @@
         <v>1.3913232117540919</v>
       </c>
       <c r="V24" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.6086767882459081</v>
       </c>
       <c r="W24">
@@ -34889,7 +34888,7 @@
         <v>6.9495858299265375E-3</v>
       </c>
       <c r="V25" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.9930504141700736</v>
       </c>
       <c r="W25">
@@ -34965,7 +34964,7 @@
         <v>2.9941503901018177E-3</v>
       </c>
       <c r="V26" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.9970058496098981</v>
       </c>
       <c r="W26">
@@ -35037,7 +35036,7 @@
         <v>2</v>
       </c>
       <c r="V27" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W27" s="109">
@@ -35113,7 +35112,7 @@
         <v>1.7573086194181811</v>
       </c>
       <c r="V28" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.24269138058181894</v>
       </c>
       <c r="W28">
@@ -35189,7 +35188,7 @@
         <v>1.6091298306054833</v>
       </c>
       <c r="V29" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.39087016939451669</v>
       </c>
       <c r="W29">
@@ -35265,7 +35264,7 @@
         <v>1.1421919611900542</v>
       </c>
       <c r="V30" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.85780803880994583</v>
       </c>
       <c r="W30">
@@ -35341,7 +35340,7 @@
         <v>0.66211418445180659</v>
       </c>
       <c r="V31" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.3378858155481934</v>
       </c>
       <c r="W31">
@@ -35417,7 +35416,7 @@
         <v>2.9422159252668516E-3</v>
       </c>
       <c r="V32" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.9970577840747332</v>
       </c>
       <c r="W32">
@@ -35489,7 +35488,7 @@
         <v>2</v>
       </c>
       <c r="V33" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W33" s="109">
@@ -35565,7 +35564,7 @@
         <v>1.7825883099976125</v>
       </c>
       <c r="V34" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.21741169000238747</v>
       </c>
       <c r="W34">
@@ -35641,7 +35640,7 @@
         <v>1.3369466654582298</v>
       </c>
       <c r="V35" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.66305333454177018</v>
       </c>
       <c r="W35">
@@ -35717,7 +35716,7 @@
         <v>0.86907737218693792</v>
       </c>
       <c r="V36" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.130922627813062</v>
       </c>
       <c r="W36">
@@ -35793,7 +35792,7 @@
         <v>0.57057971074692637</v>
       </c>
       <c r="V37" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.4294202892530736</v>
       </c>
       <c r="W37">
@@ -35869,7 +35868,7 @@
         <v>0.33846928228125861</v>
       </c>
       <c r="V38" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.6615307177187413</v>
       </c>
       <c r="W38">
@@ -35945,7 +35944,7 @@
         <v>0.19642949542785082</v>
       </c>
       <c r="V39" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.8035705045721491</v>
       </c>
       <c r="W39">
@@ -36021,7 +36020,7 @@
         <v>2.6911676014617541E-3</v>
       </c>
       <c r="V40" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.9973088323985382</v>
       </c>
       <c r="W40">
@@ -36093,7 +36092,7 @@
         <v>1</v>
       </c>
       <c r="V41" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W41" s="109">
@@ -36169,7 +36168,7 @@
         <v>0.97272709045517847</v>
       </c>
       <c r="V42" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.7272909544821533E-2</v>
       </c>
       <c r="W42">
@@ -36245,7 +36244,7 @@
         <v>0.67800390010585376</v>
       </c>
       <c r="V43" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.32199609989414624</v>
       </c>
       <c r="W43">
@@ -36321,7 +36320,7 @@
         <v>0.36696417480090626</v>
       </c>
       <c r="V44" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.63303582519909374</v>
       </c>
       <c r="W44">
@@ -36397,7 +36396,7 @@
         <v>7.6390497360260667E-3</v>
       </c>
       <c r="V45" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.99236095026397397</v>
       </c>
       <c r="W45">
@@ -36469,7 +36468,7 @@
         <v>2</v>
       </c>
       <c r="V46" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W46" s="109">
@@ -36545,7 +36544,7 @@
         <v>1.8163487284106026</v>
       </c>
       <c r="V47" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.18365127158939742</v>
       </c>
       <c r="W47">
@@ -36621,7 +36620,7 @@
         <v>1.3589318079141641</v>
       </c>
       <c r="V48" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.64106819208583588</v>
       </c>
       <c r="W48">
@@ -36697,7 +36696,7 @@
         <v>0.98488315475809129</v>
       </c>
       <c r="V49" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.0151168452419088</v>
       </c>
       <c r="W49">
@@ -36773,7 +36772,7 @@
         <v>0.44220735260470517</v>
       </c>
       <c r="V50" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.5577926473952948</v>
       </c>
       <c r="W50">
@@ -36849,7 +36848,7 @@
         <v>0.15301356797056542</v>
       </c>
       <c r="V51" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.8469864320294347</v>
       </c>
       <c r="W51">
@@ -36921,7 +36920,7 @@
         <v>1.5</v>
       </c>
       <c r="V52" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W52" s="109">
@@ -36997,7 +36996,7 @@
         <v>1.5192218236047421</v>
       </c>
       <c r="V53" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-1.9221823604742116E-2</v>
       </c>
       <c r="W53">
@@ -37073,7 +37072,7 @@
         <v>1.2632142077116</v>
       </c>
       <c r="V54" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.23678579228840002</v>
       </c>
       <c r="W54">
@@ -37149,7 +37148,7 @@
         <v>1.0812238111757477</v>
       </c>
       <c r="V55" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.41877618882425227</v>
       </c>
       <c r="W55">
@@ -37225,7 +37224,7 @@
         <v>0.91131604089539964</v>
       </c>
       <c r="V56" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.58868395910460036</v>
       </c>
       <c r="W56">
@@ -37301,7 +37300,7 @@
         <v>0.65358528980508324</v>
       </c>
       <c r="V57" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.84641471019491676</v>
       </c>
       <c r="W57">
@@ -40397,7 +40396,7 @@
         <v>24.485714285714288</v>
       </c>
     </row>
-    <row r="99" spans="1:23" ht="17.5">
+    <row r="99" spans="1:23" ht="17.25">
       <c r="A99">
         <v>16</v>
       </c>
@@ -40469,7 +40468,7 @@
         <v>26.542857142857141</v>
       </c>
     </row>
-    <row r="100" spans="1:23" ht="17.5">
+    <row r="100" spans="1:23" ht="17.25">
       <c r="A100">
         <v>16</v>
       </c>
@@ -40545,7 +40544,7 @@
         <v>26.542857142857141</v>
       </c>
     </row>
-    <row r="101" spans="1:23" ht="17.5">
+    <row r="101" spans="1:23" ht="17.25">
       <c r="A101">
         <v>16</v>
       </c>
@@ -40621,7 +40620,7 @@
         <v>26.542857142857141</v>
       </c>
     </row>
-    <row r="102" spans="1:23" ht="17.5">
+    <row r="102" spans="1:23" ht="17.25">
       <c r="A102">
         <v>16</v>
       </c>
@@ -40697,7 +40696,7 @@
         <v>26.542857142857141</v>
       </c>
     </row>
-    <row r="103" spans="1:23" ht="17.5">
+    <row r="103" spans="1:23" ht="17.25">
       <c r="A103">
         <v>16</v>
       </c>
@@ -40773,7 +40772,7 @@
         <v>26.542857142857141</v>
       </c>
     </row>
-    <row r="104" spans="1:23" ht="17.5">
+    <row r="104" spans="1:23" ht="17.25">
       <c r="A104">
         <v>16</v>
       </c>
@@ -40849,7 +40848,7 @@
         <v>26.542857142857141</v>
       </c>
     </row>
-    <row r="105" spans="1:23" ht="17.5">
+    <row r="105" spans="1:23" ht="17.25">
       <c r="A105">
         <v>16</v>
       </c>
@@ -40925,7 +40924,7 @@
         <v>26.542857142857141</v>
       </c>
     </row>
-    <row r="106" spans="1:23" ht="17.5">
+    <row r="106" spans="1:23" ht="17.25">
       <c r="A106">
         <v>17</v>
       </c>
@@ -40997,7 +40996,7 @@
         <v>20.839999999999996</v>
       </c>
     </row>
-    <row r="107" spans="1:23" ht="17.5">
+    <row r="107" spans="1:23" ht="17.25">
       <c r="A107">
         <v>17</v>
       </c>
@@ -41073,7 +41072,7 @@
         <v>20.839999999999996</v>
       </c>
     </row>
-    <row r="108" spans="1:23" ht="17.5">
+    <row r="108" spans="1:23" ht="17.25">
       <c r="A108">
         <v>17</v>
       </c>
@@ -45521,7 +45520,7 @@
         <v>19.400000000000002</v>
       </c>
     </row>
-    <row r="167" spans="1:23" ht="17.5">
+    <row r="167" spans="1:23" ht="17.25">
       <c r="A167">
         <v>27</v>
       </c>
